--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2850150.845560803</v>
+        <v>-2850899.247071723</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4354305.171692327</v>
+        <v>4354305.171692324</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>260.8850331288905</v>
       </c>
       <c r="C11" t="n">
-        <v>248.8963500865721</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>239.8776541311001</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>181.0544281019845</v>
+        <v>261.6197917010057</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>280.7916077889829</v>
       </c>
       <c r="G11" t="n">
-        <v>282.1305160374087</v>
+        <v>282.1305160374088</v>
       </c>
       <c r="H11" t="n">
-        <v>194.1880049094285</v>
+        <v>194.1880049094286</v>
       </c>
       <c r="I11" t="n">
-        <v>18.95690544140071</v>
+        <v>18.95690544140081</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.59464412049024</v>
+        <v>42.59464412049033</v>
       </c>
       <c r="T11" t="n">
-        <v>90.29547644886762</v>
+        <v>90.2954764488677</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>204.3914103690695</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.991768079773</v>
+        <v>59.52681227364843</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>260.3883658759719</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>28.60717735949981</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>30.86856503750639</v>
       </c>
       <c r="D12" t="n">
-        <v>8.232179645741468</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>16.3396588497489</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>4.12878907567594</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8.141246716300145</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>6.046380251254608</v>
       </c>
       <c r="S12" t="n">
-        <v>16.14651652925639</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T12" t="n">
         <v>185.5164475248238</v>
@@ -1512,7 +1512,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>66.71974724703477</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.50174400358745</v>
+        <v>52.50174400358756</v>
       </c>
       <c r="C13" t="n">
-        <v>38.70173884898793</v>
+        <v>38.70173884898804</v>
       </c>
       <c r="D13" t="n">
-        <v>22.32310324656632</v>
+        <v>22.32310324656643</v>
       </c>
       <c r="E13" t="n">
-        <v>21.27085310234577</v>
+        <v>21.27085310234588</v>
       </c>
       <c r="F13" t="n">
-        <v>21.73777743053208</v>
+        <v>21.73777743053219</v>
       </c>
       <c r="G13" t="n">
-        <v>37.74587087490171</v>
+        <v>37.74587087490183</v>
       </c>
       <c r="H13" t="n">
-        <v>26.19044893016413</v>
+        <v>26.19044893016424</v>
       </c>
       <c r="I13" t="n">
-        <v>5.525274884455195</v>
+        <v>5.525274884455298</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.820769996597098</v>
+        <v>6.820769996597196</v>
       </c>
       <c r="S13" t="n">
-        <v>77.70832139488061</v>
+        <v>77.70832139488071</v>
       </c>
       <c r="T13" t="n">
-        <v>100.4899439296225</v>
+        <v>100.4899439296226</v>
       </c>
       <c r="U13" t="n">
-        <v>155.0857237976437</v>
+        <v>155.0857237976439</v>
       </c>
       <c r="V13" t="n">
-        <v>128.909880403213</v>
+        <v>128.9098804032132</v>
       </c>
       <c r="W13" t="n">
-        <v>154.0767664738263</v>
+        <v>154.0767664738264</v>
       </c>
       <c r="X13" t="n">
-        <v>99.72186846962941</v>
+        <v>99.72186846962953</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.5967362256971</v>
+        <v>90.59673622569721</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>248.8963500865723</v>
+        <v>248.8963500865722</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>261.6197917010058</v>
+        <v>202.4927536005738</v>
       </c>
       <c r="F14" t="n">
-        <v>280.791607788983</v>
+        <v>280.7916077889829</v>
       </c>
       <c r="G14" t="n">
-        <v>16.60635397769292</v>
+        <v>282.1305160374088</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>42.59464412049033</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3914103690697</v>
+        <v>204.3914103690696</v>
       </c>
       <c r="W14" t="n">
-        <v>229.6915098470266</v>
+        <v>229.6915098470265</v>
       </c>
       <c r="X14" t="n">
-        <v>248.9917680797732</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>260.3883658759719</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.60717735949987</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>30.86856503750639</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H15" t="n">
-        <v>95.82256846136923</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.74941852193288</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.44188278383304</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>145.364587523205</v>
       </c>
       <c r="T15" t="n">
-        <v>56.29837653087538</v>
+        <v>136.9082757191912</v>
       </c>
       <c r="U15" t="n">
         <v>216.2889227376699</v>
@@ -1746,13 +1746,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>109.6846390850746</v>
       </c>
       <c r="X15" t="n">
-        <v>66.71974724703495</v>
+        <v>66.71974724703489</v>
       </c>
       <c r="Y15" t="n">
-        <v>61.37804209296854</v>
+        <v>61.37804209296849</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.50174400358762</v>
+        <v>52.50174400358756</v>
       </c>
       <c r="C16" t="n">
-        <v>38.7017388489881</v>
+        <v>38.70173884898804</v>
       </c>
       <c r="D16" t="n">
-        <v>22.32310324656649</v>
+        <v>22.32310324656643</v>
       </c>
       <c r="E16" t="n">
-        <v>21.27085310234594</v>
+        <v>21.27085310234588</v>
       </c>
       <c r="F16" t="n">
-        <v>21.73777743053225</v>
+        <v>21.73777743053219</v>
       </c>
       <c r="G16" t="n">
-        <v>37.74587087490188</v>
+        <v>37.74587087490183</v>
       </c>
       <c r="H16" t="n">
-        <v>26.1904489301643</v>
+        <v>26.19044893016424</v>
       </c>
       <c r="I16" t="n">
-        <v>5.525274884455365</v>
+        <v>5.525274884455298</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.820769996597269</v>
+        <v>6.820769996597196</v>
       </c>
       <c r="S16" t="n">
-        <v>77.70832139488078</v>
+        <v>77.70832139488071</v>
       </c>
       <c r="T16" t="n">
-        <v>100.4899439296227</v>
+        <v>100.4899439296226</v>
       </c>
       <c r="U16" t="n">
         <v>155.0857237976439</v>
@@ -1825,13 +1825,13 @@
         <v>128.9098804032132</v>
       </c>
       <c r="W16" t="n">
-        <v>154.0767664738265</v>
+        <v>154.0767664738264</v>
       </c>
       <c r="X16" t="n">
-        <v>99.72186846962958</v>
+        <v>99.72186846962953</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.59673622569727</v>
+        <v>90.59673622569721</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.5895566800227</v>
+        <v>170.5895566800228</v>
       </c>
       <c r="C17" t="n">
-        <v>158.6008736377044</v>
+        <v>158.6008736377046</v>
       </c>
       <c r="D17" t="n">
-        <v>149.5821776822324</v>
+        <v>149.5821776822326</v>
       </c>
       <c r="E17" t="n">
-        <v>171.3243152521379</v>
+        <v>171.3243152521381</v>
       </c>
       <c r="F17" t="n">
-        <v>190.4961313401151</v>
+        <v>190.4961313401153</v>
       </c>
       <c r="G17" t="n">
-        <v>191.835039588541</v>
+        <v>191.8350395885411</v>
       </c>
       <c r="H17" t="n">
-        <v>103.8925284605608</v>
+        <v>103.8925284605609</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>32.77538670840991</v>
+        <v>32.77538670841005</v>
       </c>
       <c r="V17" t="n">
-        <v>114.0959339202018</v>
+        <v>114.095933920202</v>
       </c>
       <c r="W17" t="n">
-        <v>139.3960333981587</v>
+        <v>139.3960333981589</v>
       </c>
       <c r="X17" t="n">
-        <v>158.6962916309053</v>
+        <v>158.6962916309055</v>
       </c>
       <c r="Y17" t="n">
-        <v>170.0928894271041</v>
+        <v>170.0928894271042</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
@@ -1932,13 +1932,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>82.62006238706135</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>68.32159882763847</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.44188278383303</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U18" t="n">
         <v>216.2889227376699</v>
@@ -1986,7 +1986,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>10.19446748075483</v>
+        <v>229.7080149235711</v>
       </c>
       <c r="U19" t="n">
-        <v>64.79024734877605</v>
+        <v>284.3037947915923</v>
       </c>
       <c r="V19" t="n">
-        <v>142.0830615101474</v>
+        <v>157.91013807712</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>63.78129002495876</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>9.426392020761881</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3012597768294256</v>
+        <v>0.3012597768295677</v>
       </c>
     </row>
     <row r="20">
@@ -2172,13 +2172,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>47.65261622262542</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.44188278383303</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>165.5621250551067</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>19.38916263620689</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9639418688503</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>198.8855792644279</v>
       </c>
       <c r="T22" t="n">
         <v>10.19446748075492</v>
@@ -2305,7 +2305,7 @@
         <v>9.426392020761824</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.6381420239466</v>
+        <v>0.3012597768295109</v>
       </c>
     </row>
     <row r="23">
@@ -2403,10 +2403,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>82.62006238706094</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>38.08151363920096</v>
       </c>
       <c r="U24" t="n">
         <v>216.2889227376699</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.6073903176101</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.82707656697311</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>10.19446748075492</v>
+        <v>229.7080149235711</v>
       </c>
       <c r="U25" t="n">
         <v>64.79024734877613</v>
@@ -2539,10 +2539,10 @@
         <v>63.78129002495871</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>72.28765925895324</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.6216172461262</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>222.0346248910547</v>
       </c>
       <c r="I26" t="n">
-        <v>46.80352542302695</v>
+        <v>46.80352542302697</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S27" t="n">
         <v>145.364587523205</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.34836398521371</v>
+        <v>80.34836398521369</v>
       </c>
       <c r="C28" t="n">
-        <v>66.54835883061419</v>
+        <v>66.54835883061418</v>
       </c>
       <c r="D28" t="n">
-        <v>50.16972322819258</v>
+        <v>50.16972322819257</v>
       </c>
       <c r="E28" t="n">
-        <v>49.11747308397203</v>
+        <v>49.11747308397202</v>
       </c>
       <c r="F28" t="n">
-        <v>49.58439741215834</v>
+        <v>49.58439741215832</v>
       </c>
       <c r="G28" t="n">
-        <v>65.59249085652797</v>
+        <v>65.59249085652795</v>
       </c>
       <c r="H28" t="n">
         <v>54.03706891179039</v>
@@ -2779,7 +2779,7 @@
         <v>127.5684884512557</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.4433562073234</v>
+        <v>118.4433562073233</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>222.0346248910547</v>
       </c>
       <c r="I29" t="n">
-        <v>46.80352542302695</v>
+        <v>46.80352542302694</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.44126410211649</v>
+        <v>70.44126410211648</v>
       </c>
       <c r="T29" t="n">
         <v>118.1420964304939</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.34836398521371</v>
+        <v>80.34836398521369</v>
       </c>
       <c r="C31" t="n">
-        <v>66.54835883061419</v>
+        <v>66.54835883061418</v>
       </c>
       <c r="D31" t="n">
-        <v>50.16972322819258</v>
+        <v>50.16972322819257</v>
       </c>
       <c r="E31" t="n">
-        <v>49.11747308397203</v>
+        <v>49.11747308397202</v>
       </c>
       <c r="F31" t="n">
-        <v>49.58439741215834</v>
+        <v>49.58439741215832</v>
       </c>
       <c r="G31" t="n">
-        <v>65.59249085652796</v>
+        <v>65.59249085652795</v>
       </c>
       <c r="H31" t="n">
-        <v>54.03706891179039</v>
+        <v>54.03706891179038</v>
       </c>
       <c r="I31" t="n">
-        <v>33.37189486608145</v>
+        <v>33.37189486608143</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66738997822335</v>
+        <v>34.66738997822333</v>
       </c>
       <c r="S31" t="n">
         <v>105.5549413765069</v>
@@ -3016,7 +3016,7 @@
         <v>127.5684884512557</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.4433562073234</v>
+        <v>118.4433562073233</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>222.0346248910548</v>
       </c>
       <c r="I32" t="n">
-        <v>46.80352542302707</v>
+        <v>46.80352542302705</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.44126410211662</v>
+        <v>70.44126410211661</v>
       </c>
       <c r="T32" t="n">
         <v>118.142096430494</v>
@@ -3126,7 +3126,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I33" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S33" t="n">
         <v>145.364587523205</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.34836398521382</v>
+        <v>80.34836398521381</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5483588306143</v>
+        <v>66.54835883061429</v>
       </c>
       <c r="D34" t="n">
-        <v>50.16972322819269</v>
+        <v>50.16972322819268</v>
       </c>
       <c r="E34" t="n">
-        <v>49.11747308397214</v>
+        <v>49.11747308397213</v>
       </c>
       <c r="F34" t="n">
-        <v>49.58439741215845</v>
+        <v>49.58439741215844</v>
       </c>
       <c r="G34" t="n">
-        <v>65.59249085652809</v>
+        <v>65.59249085652807</v>
       </c>
       <c r="H34" t="n">
-        <v>54.03706891179051</v>
+        <v>54.03706891179049</v>
       </c>
       <c r="I34" t="n">
-        <v>33.37189486608156</v>
+        <v>33.37189486608155</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66738997822347</v>
+        <v>34.66738997822345</v>
       </c>
       <c r="S34" t="n">
         <v>105.554941376507</v>
@@ -3317,7 +3317,7 @@
         <v>5.762763267334407</v>
       </c>
       <c r="T35" t="n">
-        <v>53.46359559571178</v>
+        <v>53.46359559571175</v>
       </c>
       <c r="U35" t="n">
         <v>86.23898230412175</v>
@@ -3363,7 +3363,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I36" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383347</v>
       </c>
       <c r="S36" t="n">
         <v>145.364587523205</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>122.6906268615651</v>
+        <v>0.9139900217458732</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>40.60739031761008</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>63.65806307646667</v>
       </c>
       <c r="U37" t="n">
-        <v>118.2538429444879</v>
+        <v>130.4149948217858</v>
       </c>
       <c r="V37" t="n">
         <v>92.0779995500572</v>
@@ -3487,7 +3487,7 @@
         <v>117.2448856206705</v>
       </c>
       <c r="X37" t="n">
-        <v>62.88998761647358</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>53.76485537254126</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.0531522757345</v>
+        <v>224.0531522757346</v>
       </c>
       <c r="C38" t="n">
         <v>212.0644692334163</v>
       </c>
       <c r="D38" t="n">
-        <v>203.0457732779442</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E38" t="n">
         <v>224.7879108478498</v>
@@ -3515,10 +3515,10 @@
         <v>243.959726935827</v>
       </c>
       <c r="G38" t="n">
-        <v>245.2986351842528</v>
+        <v>245.2986351842529</v>
       </c>
       <c r="H38" t="n">
-        <v>157.3561240562726</v>
+        <v>157.3561240562727</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.762763267334407</v>
+        <v>5.762763267334464</v>
       </c>
       <c r="T38" t="n">
-        <v>53.46359559571178</v>
+        <v>53.46359559571181</v>
       </c>
       <c r="U38" t="n">
-        <v>86.23898230412175</v>
+        <v>86.23898230412181</v>
       </c>
       <c r="V38" t="n">
         <v>167.5595295159137</v>
@@ -3569,7 +3569,7 @@
         <v>212.1598872266172</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.5564850228159</v>
+        <v>223.556485022816</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I39" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S39" t="n">
         <v>145.364587523205</v>
       </c>
       <c r="T39" t="n">
-        <v>185.5164475248234</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U39" t="n">
         <v>216.2889227376699</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.66986315043161</v>
+        <v>15.66986315043167</v>
       </c>
       <c r="C40" t="n">
-        <v>1.869857995832092</v>
+        <v>1.869857995832149</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>27.72217962810744</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>7.889497255062222</v>
+        <v>0.91399002174593</v>
       </c>
       <c r="H40" t="n">
-        <v>155.4085199241127</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>40.87644054172477</v>
+        <v>40.87644054172483</v>
       </c>
       <c r="T40" t="n">
-        <v>63.65806307646667</v>
+        <v>63.65806307646672</v>
       </c>
       <c r="U40" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V40" t="n">
-        <v>92.0779995500572</v>
+        <v>92.07799955005726</v>
       </c>
       <c r="W40" t="n">
         <v>117.2448856206705</v>
       </c>
       <c r="X40" t="n">
-        <v>62.88998761647358</v>
+        <v>62.88998761647363</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.76485537254126</v>
+        <v>53.76485537254132</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>224.0531522757346</v>
       </c>
       <c r="C41" t="n">
-        <v>212.0644692334164</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D41" t="n">
-        <v>203.0457732779444</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E41" t="n">
-        <v>224.7879108478499</v>
+        <v>224.7879108478498</v>
       </c>
       <c r="F41" t="n">
-        <v>243.9597269358271</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G41" t="n">
-        <v>245.298635184253</v>
+        <v>245.2986351842529</v>
       </c>
       <c r="H41" t="n">
         <v>157.3561240562727</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.762763267334513</v>
+        <v>5.762763267334464</v>
       </c>
       <c r="T41" t="n">
-        <v>53.46359559571188</v>
+        <v>53.46359559571181</v>
       </c>
       <c r="U41" t="n">
-        <v>86.23898230412186</v>
+        <v>86.23898230412181</v>
       </c>
       <c r="V41" t="n">
-        <v>167.5595295159138</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W41" t="n">
-        <v>192.8596289938707</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X41" t="n">
-        <v>212.1598872266173</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y41" t="n">
         <v>223.556485022816</v>
@@ -3837,7 +3837,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I42" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.44188278383347</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S42" t="n">
         <v>145.364587523205</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.66986315043172</v>
+        <v>15.66986315043167</v>
       </c>
       <c r="C43" t="n">
-        <v>1.869857995832206</v>
+        <v>1.869857995832149</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9139900217459869</v>
+        <v>0.91399002174593</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.16115187729687</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>40.87644054172488</v>
+        <v>40.87644054172483</v>
       </c>
       <c r="T43" t="n">
-        <v>63.65806307646678</v>
+        <v>63.65806307646672</v>
       </c>
       <c r="U43" t="n">
-        <v>118.253842944488</v>
+        <v>118.2538429444879</v>
       </c>
       <c r="V43" t="n">
-        <v>92.07799955005731</v>
+        <v>104.2391514273547</v>
       </c>
       <c r="W43" t="n">
-        <v>117.2448856206706</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X43" t="n">
-        <v>62.88998761647369</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>53.76485537254132</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0531522757345</v>
+        <v>224.0531522757346</v>
       </c>
       <c r="C44" t="n">
-        <v>212.0644692334162</v>
+        <v>212.0644692334164</v>
       </c>
       <c r="D44" t="n">
-        <v>203.0457732779442</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E44" t="n">
-        <v>224.7879108478497</v>
+        <v>224.7879108478499</v>
       </c>
       <c r="F44" t="n">
-        <v>243.9597269358269</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G44" t="n">
-        <v>245.2986351842528</v>
+        <v>245.2986351842529</v>
       </c>
       <c r="H44" t="n">
-        <v>157.3561240562726</v>
+        <v>157.3561240562727</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.76276326733435</v>
+        <v>5.762763267334481</v>
       </c>
       <c r="T44" t="n">
-        <v>53.46359559571172</v>
+        <v>53.46359559571185</v>
       </c>
       <c r="U44" t="n">
-        <v>86.23898230412169</v>
+        <v>86.23898230412183</v>
       </c>
       <c r="V44" t="n">
-        <v>167.5595295159136</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W44" t="n">
-        <v>192.8596289938705</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X44" t="n">
-        <v>212.1598872266171</v>
+        <v>212.1598872266173</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.5564850228159</v>
+        <v>223.556485022816</v>
       </c>
     </row>
     <row r="45">
@@ -4065,7 +4065,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>133.346860069625</v>
       </c>
       <c r="G45" t="n">
         <v>127.1232045289026</v>
@@ -4074,7 +4074,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I45" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193289</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S45" t="n">
         <v>145.364587523205</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.66986315043155</v>
+        <v>15.66986315043169</v>
       </c>
       <c r="C46" t="n">
-        <v>1.869857995832035</v>
+        <v>1.869857995832177</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9139900217458163</v>
+        <v>0.9139900217459584</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.60739031761008</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.82707656697309</v>
+        <v>12.16115187729718</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.87644054172471</v>
+        <v>40.87644054172485</v>
       </c>
       <c r="T46" t="n">
-        <v>63.65806307646661</v>
+        <v>63.65806307646675</v>
       </c>
       <c r="U46" t="n">
-        <v>118.2538429444878</v>
+        <v>118.253842944488</v>
       </c>
       <c r="V46" t="n">
-        <v>213.854636389877</v>
+        <v>92.07799955005729</v>
       </c>
       <c r="W46" t="n">
-        <v>117.2448856206704</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X46" t="n">
-        <v>62.88998761647352</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.76485537254121</v>
+        <v>53.76485537254135</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1212.976009779693</v>
+        <v>1084.271936214373</v>
       </c>
       <c r="C11" t="n">
-        <v>961.5655551467922</v>
+        <v>1084.271936214373</v>
       </c>
       <c r="D11" t="n">
-        <v>719.2648944083073</v>
+        <v>1084.271936214373</v>
       </c>
       <c r="E11" t="n">
-        <v>536.3816336992321</v>
+        <v>820.0095203547708</v>
       </c>
       <c r="F11" t="n">
-        <v>536.3816336992321</v>
+        <v>536.3816336992323</v>
       </c>
       <c r="G11" t="n">
-        <v>251.4013144695264</v>
+        <v>251.4013144695265</v>
       </c>
       <c r="H11" t="n">
-        <v>55.25181456101274</v>
+        <v>55.25181456101289</v>
       </c>
       <c r="I11" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J11" t="n">
-        <v>158.0430464355078</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="K11" t="n">
-        <v>473.0321469193354</v>
+        <v>473.0321469193356</v>
       </c>
       <c r="L11" t="n">
-        <v>913.7739862102272</v>
+        <v>913.7739862102276</v>
       </c>
       <c r="M11" t="n">
-        <v>930.2787636703692</v>
+        <v>913.7739862102276</v>
       </c>
       <c r="N11" t="n">
-        <v>930.2787636703692</v>
+        <v>1360.553873385252</v>
       </c>
       <c r="O11" t="n">
-        <v>1334.424833309986</v>
+        <v>1492.399400986652</v>
       </c>
       <c r="P11" t="n">
-        <v>1647.196693636563</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q11" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R11" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S11" t="n">
-        <v>1762.146368262229</v>
+        <v>1762.14636826223</v>
       </c>
       <c r="T11" t="n">
-        <v>1670.938816293676</v>
+        <v>1670.938816293677</v>
       </c>
       <c r="U11" t="n">
-        <v>1670.938816293676</v>
+        <v>1670.938816293677</v>
       </c>
       <c r="V11" t="n">
-        <v>1464.482846223909</v>
+        <v>1670.938816293677</v>
       </c>
       <c r="W11" t="n">
-        <v>1464.482846223909</v>
+        <v>1670.938816293677</v>
       </c>
       <c r="X11" t="n">
-        <v>1212.976009779693</v>
+        <v>1610.810723087971</v>
       </c>
       <c r="Y11" t="n">
-        <v>1212.976009779693</v>
+        <v>1347.7921716981</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>493.9516937533073</v>
+        <v>357.3209349197695</v>
       </c>
       <c r="C12" t="n">
-        <v>332.248020994262</v>
+        <v>326.1405661950156</v>
       </c>
       <c r="D12" t="n">
-        <v>323.9326880187656</v>
+        <v>187.3019291852277</v>
       </c>
       <c r="E12" t="n">
-        <v>307.4279821099283</v>
+        <v>40.27391924209888</v>
       </c>
       <c r="F12" t="n">
-        <v>172.7341840598027</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="G12" t="n">
-        <v>44.32690675788089</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="H12" t="n">
-        <v>44.32690675788089</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I12" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J12" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K12" t="n">
-        <v>316.4321740980387</v>
+        <v>316.4321740980388</v>
       </c>
       <c r="L12" t="n">
-        <v>750.6122480321774</v>
+        <v>750.6122480321776</v>
       </c>
       <c r="M12" t="n">
-        <v>798.2172206152195</v>
+        <v>1160.431927163476</v>
       </c>
       <c r="N12" t="n">
-        <v>798.2172206152195</v>
+        <v>1160.431927163476</v>
       </c>
       <c r="O12" t="n">
-        <v>1244.997107790244</v>
+        <v>1607.211814338501</v>
       </c>
       <c r="P12" t="n">
-        <v>1607.2118143385</v>
+        <v>1607.211814338501</v>
       </c>
       <c r="Q12" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R12" t="n">
-        <v>1805.171261313229</v>
+        <v>1799.063806513983</v>
       </c>
       <c r="S12" t="n">
-        <v>1788.861648657415</v>
+        <v>1652.230889823877</v>
       </c>
       <c r="T12" t="n">
-        <v>1601.471297622239</v>
+        <v>1464.840538788701</v>
       </c>
       <c r="U12" t="n">
-        <v>1382.997638291259</v>
+        <v>1246.366879457722</v>
       </c>
       <c r="V12" t="n">
-        <v>1154.602015739593</v>
+        <v>1017.971256906056</v>
       </c>
       <c r="W12" t="n">
-        <v>913.2861469729033</v>
+        <v>776.6553881393656</v>
       </c>
       <c r="X12" t="n">
-        <v>845.8924628849894</v>
+        <v>578.7384000171602</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.3711365345682</v>
+        <v>386.217073666739</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.3509679716718</v>
+        <v>211.3509679716726</v>
       </c>
       <c r="C13" t="n">
-        <v>172.2583024676436</v>
+        <v>172.2583024676443</v>
       </c>
       <c r="D13" t="n">
-        <v>149.7097133296978</v>
+        <v>149.7097133296984</v>
       </c>
       <c r="E13" t="n">
-        <v>128.2240031253081</v>
+        <v>128.2240031253086</v>
       </c>
       <c r="F13" t="n">
-        <v>106.2666521853768</v>
+        <v>106.2666521853771</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13950988749623</v>
+        <v>68.13950988749646</v>
       </c>
       <c r="H13" t="n">
-        <v>41.68451096813852</v>
+        <v>41.68451096813864</v>
       </c>
       <c r="I13" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J13" t="n">
-        <v>36.10342522626458</v>
+        <v>123.8279990958396</v>
       </c>
       <c r="K13" t="n">
-        <v>157.1354235026473</v>
+        <v>316.0234761625248</v>
       </c>
       <c r="L13" t="n">
-        <v>296.9836559442205</v>
+        <v>537.1666307109369</v>
       </c>
       <c r="M13" t="n">
-        <v>456.3514559382385</v>
+        <v>696.534430704955</v>
       </c>
       <c r="N13" t="n">
-        <v>615.1643033222056</v>
+        <v>855.3472780889222</v>
       </c>
       <c r="O13" t="n">
-        <v>878.8610094480182</v>
+        <v>991.1180939307258</v>
       </c>
       <c r="P13" t="n">
-        <v>973.7522215644181</v>
+        <v>1086.009306047126</v>
       </c>
       <c r="Q13" t="n">
-        <v>1086.009306047124</v>
+        <v>1086.009306047126</v>
       </c>
       <c r="R13" t="n">
-        <v>1079.119639383894</v>
+        <v>1079.119639383896</v>
       </c>
       <c r="S13" t="n">
-        <v>1000.626385449671</v>
+        <v>1000.626385449673</v>
       </c>
       <c r="T13" t="n">
-        <v>899.1213915813659</v>
+        <v>899.1213915813673</v>
       </c>
       <c r="U13" t="n">
-        <v>742.4691453211196</v>
+        <v>742.469145321121</v>
       </c>
       <c r="V13" t="n">
-        <v>612.2571449138337</v>
+        <v>612.257144913835</v>
       </c>
       <c r="W13" t="n">
-        <v>456.6240474655243</v>
+        <v>456.6240474655255</v>
       </c>
       <c r="X13" t="n">
-        <v>355.8948873951916</v>
+        <v>355.8948873951926</v>
       </c>
       <c r="Y13" t="n">
-        <v>264.3830326217602</v>
+        <v>264.3830326217611</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>852.1782773012681</v>
+        <v>1060.660220694484</v>
       </c>
       <c r="C14" t="n">
-        <v>600.7678226683668</v>
+        <v>809.2497660615832</v>
       </c>
       <c r="D14" t="n">
-        <v>600.7678226683668</v>
+        <v>809.2497660615832</v>
       </c>
       <c r="E14" t="n">
-        <v>336.5054068087654</v>
+        <v>604.7116311115087</v>
       </c>
       <c r="F14" t="n">
-        <v>52.87752015322712</v>
+        <v>321.0837444559705</v>
       </c>
       <c r="G14" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="H14" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I14" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J14" t="n">
-        <v>158.0430464355078</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="K14" t="n">
-        <v>473.0321469193354</v>
+        <v>473.0321469193356</v>
       </c>
       <c r="L14" t="n">
-        <v>913.7739862102272</v>
+        <v>473.0321469193356</v>
       </c>
       <c r="M14" t="n">
-        <v>913.7739862102272</v>
+        <v>483.4988764953451</v>
       </c>
       <c r="N14" t="n">
-        <v>930.2787636703692</v>
+        <v>930.2787636703695</v>
       </c>
       <c r="O14" t="n">
         <v>1334.424833309986</v>
       </c>
       <c r="P14" t="n">
-        <v>1647.196693636563</v>
+        <v>1647.196693636564</v>
       </c>
       <c r="Q14" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R14" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S14" t="n">
-        <v>1805.171261313229</v>
+        <v>1762.14636826223</v>
       </c>
       <c r="T14" t="n">
-        <v>1805.171261313229</v>
+        <v>1762.14636826223</v>
       </c>
       <c r="U14" t="n">
-        <v>1805.171261313229</v>
+        <v>1762.14636826223</v>
       </c>
       <c r="V14" t="n">
-        <v>1598.715291243462</v>
+        <v>1555.690398192462</v>
       </c>
       <c r="W14" t="n">
-        <v>1366.703665135354</v>
+        <v>1323.678772084355</v>
       </c>
       <c r="X14" t="n">
-        <v>1115.196828691139</v>
+        <v>1323.678772084355</v>
       </c>
       <c r="Y14" t="n">
-        <v>852.1782773012681</v>
+        <v>1060.660220694484</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>715.1580161816545</v>
+        <v>673.5741612276321</v>
       </c>
       <c r="C15" t="n">
-        <v>553.4543434226092</v>
+        <v>642.3937925028781</v>
       </c>
       <c r="D15" t="n">
-        <v>414.6157064128213</v>
+        <v>503.5551554930902</v>
       </c>
       <c r="E15" t="n">
-        <v>267.5876964696925</v>
+        <v>356.5271455499615</v>
       </c>
       <c r="F15" t="n">
-        <v>132.8938984195669</v>
+        <v>221.8333474998358</v>
       </c>
       <c r="G15" t="n">
-        <v>132.8938984195669</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="H15" t="n">
-        <v>36.10342522626458</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I15" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J15" t="n">
-        <v>126.102135052085</v>
+        <v>126.1021350520851</v>
       </c>
       <c r="K15" t="n">
-        <v>406.4308839238591</v>
+        <v>406.4308839238593</v>
       </c>
       <c r="L15" t="n">
-        <v>840.6109578579978</v>
+        <v>840.6109578579981</v>
       </c>
       <c r="M15" t="n">
-        <v>1160.431927163476</v>
+        <v>840.6109578579981</v>
       </c>
       <c r="N15" t="n">
-        <v>1160.431927163476</v>
+        <v>840.6109578579981</v>
       </c>
       <c r="O15" t="n">
-        <v>1607.2118143385</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="P15" t="n">
-        <v>1607.2118143385</v>
+        <v>1607.211814338501</v>
       </c>
       <c r="Q15" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.330975672994</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S15" t="n">
-        <v>1618.498058982888</v>
+        <v>1658.338344623124</v>
       </c>
       <c r="T15" t="n">
-        <v>1561.631011982004</v>
+        <v>1520.047157027981</v>
       </c>
       <c r="U15" t="n">
-        <v>1343.157352651024</v>
+        <v>1301.573497697002</v>
       </c>
       <c r="V15" t="n">
-        <v>1114.761730099358</v>
+        <v>1073.177875145336</v>
       </c>
       <c r="W15" t="n">
-        <v>873.445861332668</v>
+        <v>962.3853104129369</v>
       </c>
       <c r="X15" t="n">
-        <v>806.0521772447539</v>
+        <v>894.9916263250228</v>
       </c>
       <c r="Y15" t="n">
-        <v>744.054154928624</v>
+        <v>832.993604008893</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.350967971673</v>
+        <v>211.3509679716726</v>
       </c>
       <c r="C16" t="n">
-        <v>172.2583024676446</v>
+        <v>172.2583024676443</v>
       </c>
       <c r="D16" t="n">
-        <v>149.7097133296987</v>
+        <v>149.7097133296984</v>
       </c>
       <c r="E16" t="n">
-        <v>128.2240031253088</v>
+        <v>128.2240031253086</v>
       </c>
       <c r="F16" t="n">
-        <v>106.2666521853773</v>
+        <v>106.2666521853771</v>
       </c>
       <c r="G16" t="n">
-        <v>68.13950988749657</v>
+        <v>68.13950988749646</v>
       </c>
       <c r="H16" t="n">
-        <v>41.68451096813869</v>
+        <v>41.68451096813864</v>
       </c>
       <c r="I16" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J16" t="n">
-        <v>77.19703091867059</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K16" t="n">
-        <v>141.4666177013468</v>
+        <v>100.3730120089409</v>
       </c>
       <c r="L16" t="n">
-        <v>409.2407404269289</v>
+        <v>240.2212444505141</v>
       </c>
       <c r="M16" t="n">
-        <v>568.608540420947</v>
+        <v>399.5890444445321</v>
       </c>
       <c r="N16" t="n">
-        <v>727.421387804914</v>
+        <v>558.4018918284993</v>
       </c>
       <c r="O16" t="n">
-        <v>991.1180939307264</v>
+        <v>750.9351191640112</v>
       </c>
       <c r="P16" t="n">
-        <v>1086.009306047126</v>
+        <v>973.75222156442</v>
       </c>
       <c r="Q16" t="n">
         <v>1086.009306047126</v>
       </c>
       <c r="R16" t="n">
-        <v>1079.119639383897</v>
+        <v>1079.119639383896</v>
       </c>
       <c r="S16" t="n">
-        <v>1000.626385449674</v>
+        <v>1000.626385449673</v>
       </c>
       <c r="T16" t="n">
-        <v>899.121391581368</v>
+        <v>899.1213915813673</v>
       </c>
       <c r="U16" t="n">
-        <v>742.4691453211217</v>
+        <v>742.469145321121</v>
       </c>
       <c r="V16" t="n">
-        <v>612.2571449138356</v>
+        <v>612.257144913835</v>
       </c>
       <c r="W16" t="n">
-        <v>456.624047465526</v>
+        <v>456.6240474655255</v>
       </c>
       <c r="X16" t="n">
-        <v>355.8948873951931</v>
+        <v>355.8948873951926</v>
       </c>
       <c r="Y16" t="n">
-        <v>264.3830326217615</v>
+        <v>264.3830326217611</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.589350439692</v>
+        <v>1011.589350439691</v>
       </c>
       <c r="C17" t="n">
-        <v>851.3864477753438</v>
+        <v>851.386447775343</v>
       </c>
       <c r="D17" t="n">
-        <v>700.293339005412</v>
+        <v>700.2933390054111</v>
       </c>
       <c r="E17" t="n">
-        <v>527.2384751143636</v>
+        <v>527.2384751143625</v>
       </c>
       <c r="F17" t="n">
-        <v>334.8181404273787</v>
+        <v>334.8181404273773</v>
       </c>
       <c r="G17" t="n">
-        <v>141.045373166225</v>
+        <v>141.0453731662251</v>
       </c>
       <c r="H17" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I17" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J17" t="n">
         <v>158.0430464355079</v>
@@ -5522,25 +5522,25 @@
         <v>913.7739862102275</v>
       </c>
       <c r="M17" t="n">
-        <v>913.7739862102275</v>
+        <v>1088.253331347036</v>
       </c>
       <c r="N17" t="n">
-        <v>1088.253331347035</v>
+        <v>1088.253331347036</v>
       </c>
       <c r="O17" t="n">
         <v>1492.399400986652</v>
       </c>
       <c r="P17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S17" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="T17" t="n">
         <v>1805.171261313229</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>567.1283534100057</v>
+        <v>390.9817881666949</v>
       </c>
       <c r="C18" t="n">
-        <v>405.4246806509605</v>
+        <v>390.9817881666949</v>
       </c>
       <c r="D18" t="n">
-        <v>266.5860436411725</v>
+        <v>252.143151156907</v>
       </c>
       <c r="E18" t="n">
-        <v>119.5580336980437</v>
+        <v>105.1151412137782</v>
       </c>
       <c r="F18" t="n">
-        <v>36.10342522626458</v>
+        <v>105.1151412137782</v>
       </c>
       <c r="G18" t="n">
-        <v>36.10342522626458</v>
+        <v>105.1151412137782</v>
       </c>
       <c r="H18" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I18" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J18" t="n">
-        <v>126.102135052085</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K18" t="n">
-        <v>406.4308839238592</v>
+        <v>316.4321740980388</v>
       </c>
       <c r="L18" t="n">
-        <v>406.4308839238592</v>
+        <v>750.6122480321776</v>
       </c>
       <c r="M18" t="n">
-        <v>798.2172206152193</v>
+        <v>750.6122480321776</v>
       </c>
       <c r="N18" t="n">
-        <v>798.2172206152193</v>
+        <v>798.2172206152198</v>
       </c>
       <c r="O18" t="n">
-        <v>1244.997107790243</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="P18" t="n">
-        <v>1607.2118143385</v>
+        <v>1607.211814338501</v>
       </c>
       <c r="Q18" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R18" t="n">
-        <v>1805.171261313229</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S18" t="n">
-        <v>1805.171261313229</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="T18" t="n">
-        <v>1805.171261313229</v>
+        <v>1431.107707947713</v>
       </c>
       <c r="U18" t="n">
-        <v>1586.697601982249</v>
+        <v>1212.634048616733</v>
       </c>
       <c r="V18" t="n">
-        <v>1358.301979430583</v>
+        <v>984.238426065067</v>
       </c>
       <c r="W18" t="n">
-        <v>1116.986110663893</v>
+        <v>742.922557298377</v>
       </c>
       <c r="X18" t="n">
-        <v>919.0691225416878</v>
+        <v>742.922557298377</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.5477961912666</v>
+        <v>550.4012309479558</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="C19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="D19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="E19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="F19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="G19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="H19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K19" t="n">
-        <v>100.3730120089408</v>
+        <v>100.3730120089409</v>
       </c>
       <c r="L19" t="n">
         <v>240.2212444505141</v>
@@ -5683,7 +5683,7 @@
         <v>399.5890444445321</v>
       </c>
       <c r="N19" t="n">
-        <v>558.4018918284992</v>
+        <v>558.4018918284993</v>
       </c>
       <c r="O19" t="n">
         <v>694.1727076703028</v>
@@ -5692,31 +5692,31 @@
         <v>789.0639197867026</v>
       </c>
       <c r="Q19" t="n">
-        <v>773.0769737594571</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="R19" t="n">
-        <v>773.0769737594571</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="S19" t="n">
-        <v>773.0769737594571</v>
+        <v>789.0639197867026</v>
       </c>
       <c r="T19" t="n">
-        <v>762.7795318597048</v>
+        <v>557.0356218841056</v>
       </c>
       <c r="U19" t="n">
-        <v>697.3348375680118</v>
+        <v>269.8600715895679</v>
       </c>
       <c r="V19" t="n">
-        <v>553.816593618368</v>
+        <v>110.354881612679</v>
       </c>
       <c r="W19" t="n">
-        <v>267.660192135767</v>
+        <v>45.92933613292263</v>
       </c>
       <c r="X19" t="n">
-        <v>36.40772803114279</v>
+        <v>36.40772803114295</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
     </row>
     <row r="20">
@@ -5726,58 +5726,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1011.589350439691</v>
+        <v>1011.58935043969</v>
       </c>
       <c r="C20" t="n">
-        <v>851.3864477753427</v>
+        <v>851.3864477753424</v>
       </c>
       <c r="D20" t="n">
-        <v>700.293339005411</v>
+        <v>700.2933390054106</v>
       </c>
       <c r="E20" t="n">
-        <v>527.2384751143625</v>
+        <v>527.238475114362</v>
       </c>
       <c r="F20" t="n">
-        <v>334.8181404273774</v>
+        <v>334.818140427377</v>
       </c>
       <c r="G20" t="n">
         <v>141.0453731662251</v>
       </c>
       <c r="H20" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I20" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J20" t="n">
-        <v>158.0430464355079</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K20" t="n">
-        <v>473.0321469193355</v>
+        <v>351.0925257100922</v>
       </c>
       <c r="L20" t="n">
-        <v>473.0321469193355</v>
+        <v>598.8396266366038</v>
       </c>
       <c r="M20" t="n">
-        <v>483.4988764953447</v>
+        <v>1045.619513811628</v>
       </c>
       <c r="N20" t="n">
-        <v>930.2787636703689</v>
+        <v>1492.399400986652</v>
       </c>
       <c r="O20" t="n">
-        <v>1334.424833309985</v>
+        <v>1492.399400986652</v>
       </c>
       <c r="P20" t="n">
-        <v>1647.196693636563</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="T20" t="n">
         <v>1805.171261313229</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>618.3675429883523</v>
+        <v>820.6596664134895</v>
       </c>
       <c r="C21" t="n">
-        <v>456.663870229307</v>
+        <v>658.9559936544442</v>
       </c>
       <c r="D21" t="n">
-        <v>317.825233219519</v>
+        <v>520.1173566446563</v>
       </c>
       <c r="E21" t="n">
-        <v>170.7972232763902</v>
+        <v>373.0893467015275</v>
       </c>
       <c r="F21" t="n">
-        <v>36.10342522626458</v>
+        <v>238.3955486514019</v>
       </c>
       <c r="G21" t="n">
-        <v>36.10342522626458</v>
+        <v>190.2615928709722</v>
       </c>
       <c r="H21" t="n">
-        <v>36.10342522626458</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I21" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J21" t="n">
-        <v>126.102135052085</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K21" t="n">
-        <v>126.102135052085</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="L21" t="n">
-        <v>560.2822089862238</v>
+        <v>470.2834991604034</v>
       </c>
       <c r="M21" t="n">
-        <v>911.6114869631806</v>
+        <v>917.0633863354277</v>
       </c>
       <c r="N21" t="n">
         <v>1358.391374138205</v>
       </c>
       <c r="O21" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="P21" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q21" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="R21" t="n">
-        <v>1805.171261313229</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S21" t="n">
-        <v>1805.171261313229</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="T21" t="n">
-        <v>1805.171261313229</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="U21" t="n">
-        <v>1637.936791560596</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.54116900893</v>
+        <v>1390.102436431222</v>
       </c>
       <c r="W21" t="n">
-        <v>1168.22530024224</v>
+        <v>1370.517423667377</v>
       </c>
       <c r="X21" t="n">
-        <v>970.3083121200344</v>
+        <v>1172.600435545172</v>
       </c>
       <c r="Y21" t="n">
-        <v>777.7869857696132</v>
+        <v>980.0791091947505</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>493.664987611406</v>
+        <v>245.7714375358205</v>
       </c>
       <c r="C22" t="n">
-        <v>493.664987611406</v>
+        <v>245.7714375358205</v>
       </c>
       <c r="D22" t="n">
-        <v>340.5930944391687</v>
+        <v>245.7714375358205</v>
       </c>
       <c r="E22" t="n">
-        <v>188.5840802004875</v>
+        <v>245.7714375358205</v>
       </c>
       <c r="F22" t="n">
-        <v>36.10342522626458</v>
+        <v>245.7714375358205</v>
       </c>
       <c r="G22" t="n">
-        <v>36.10342522626458</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="H22" t="n">
-        <v>36.10342522626458</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="I22" t="n">
-        <v>36.10342522626458</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="J22" t="n">
-        <v>36.10342522626458</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K22" t="n">
-        <v>100.3730120089408</v>
+        <v>100.3730120089409</v>
       </c>
       <c r="L22" t="n">
         <v>240.2212444505141</v>
@@ -5920,7 +5920,7 @@
         <v>399.5890444445321</v>
       </c>
       <c r="N22" t="n">
-        <v>558.4018918284992</v>
+        <v>558.4018918284993</v>
       </c>
       <c r="O22" t="n">
         <v>694.1727076703028</v>
@@ -5929,31 +5929,31 @@
         <v>789.0639197867026</v>
       </c>
       <c r="Q22" t="n">
-        <v>789.0639197867026</v>
+        <v>773.0769737594571</v>
       </c>
       <c r="R22" t="n">
-        <v>789.0639197867026</v>
+        <v>635.6640030619362</v>
       </c>
       <c r="S22" t="n">
-        <v>789.0639197867026</v>
+        <v>434.769478552413</v>
       </c>
       <c r="T22" t="n">
-        <v>778.7664778869502</v>
+        <v>424.4720366526606</v>
       </c>
       <c r="U22" t="n">
-        <v>713.3217835952571</v>
+        <v>359.0273423609675</v>
       </c>
       <c r="V22" t="n">
-        <v>674.3173351565243</v>
+        <v>320.0228939222347</v>
       </c>
       <c r="W22" t="n">
-        <v>609.8917896767681</v>
+        <v>255.5973484424784</v>
       </c>
       <c r="X22" t="n">
-        <v>600.3701815749885</v>
+        <v>246.0757403406988</v>
       </c>
       <c r="Y22" t="n">
-        <v>493.664987611406</v>
+        <v>245.7714375358205</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>1011.58935043969</v>
       </c>
       <c r="C23" t="n">
-        <v>851.386447775342</v>
+        <v>851.3864477753423</v>
       </c>
       <c r="D23" t="n">
-        <v>700.2933390054102</v>
+        <v>700.2933390054104</v>
       </c>
       <c r="E23" t="n">
-        <v>527.2384751143617</v>
+        <v>527.2384751143619</v>
       </c>
       <c r="F23" t="n">
-        <v>334.8181404273766</v>
+        <v>334.8181404273769</v>
       </c>
       <c r="G23" t="n">
         <v>141.0453731662251</v>
@@ -5987,7 +5987,7 @@
         <v>36.10342522626457</v>
       </c>
       <c r="J23" t="n">
-        <v>158.0430464355079</v>
+        <v>158.0430464355078</v>
       </c>
       <c r="K23" t="n">
         <v>473.0321469193354</v>
@@ -5999,7 +5999,7 @@
         <v>919.8120340943594</v>
       </c>
       <c r="N23" t="n">
-        <v>930.2787636703682</v>
+        <v>930.2787636703688</v>
       </c>
       <c r="O23" t="n">
         <v>1334.424833309985</v>
@@ -6008,22 +6008,22 @@
         <v>1647.196693636562</v>
       </c>
       <c r="Q23" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R23" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="S23" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="T23" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="U23" t="n">
-        <v>1772.064810092612</v>
+        <v>1772.064810092613</v>
       </c>
       <c r="V23" t="n">
-        <v>1656.816391991398</v>
+        <v>1656.816391991399</v>
       </c>
       <c r="W23" t="n">
         <v>1516.012317851844</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>567.1283534100053</v>
+        <v>528.6621780168729</v>
       </c>
       <c r="C24" t="n">
-        <v>405.42468065096</v>
+        <v>366.9585052578275</v>
       </c>
       <c r="D24" t="n">
-        <v>266.5860436411721</v>
+        <v>228.1198682480396</v>
       </c>
       <c r="E24" t="n">
-        <v>119.5580336980433</v>
+        <v>228.1198682480396</v>
       </c>
       <c r="F24" t="n">
-        <v>36.10342522626457</v>
+        <v>93.42607019791396</v>
       </c>
       <c r="G24" t="n">
-        <v>36.10342522626457</v>
+        <v>93.42607019791396</v>
       </c>
       <c r="H24" t="n">
-        <v>36.10342522626457</v>
+        <v>93.42607019791396</v>
       </c>
       <c r="I24" t="n">
         <v>36.10342522626457</v>
       </c>
       <c r="J24" t="n">
-        <v>126.102135052085</v>
+        <v>36.10342522626457</v>
       </c>
       <c r="K24" t="n">
-        <v>406.4308839238591</v>
+        <v>316.4321740980387</v>
       </c>
       <c r="L24" t="n">
-        <v>840.6109578579978</v>
+        <v>750.6122480321774</v>
       </c>
       <c r="M24" t="n">
-        <v>840.6109578579978</v>
+        <v>798.217220615219</v>
       </c>
       <c r="N24" t="n">
-        <v>840.6109578579978</v>
+        <v>798.217220615219</v>
       </c>
       <c r="O24" t="n">
         <v>1244.997107790243</v>
@@ -6087,31 +6087,31 @@
         <v>1607.211814338499</v>
       </c>
       <c r="Q24" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R24" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="S24" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="T24" t="n">
-        <v>1805.171261313228</v>
+        <v>1766.705085920096</v>
       </c>
       <c r="U24" t="n">
-        <v>1586.697601982249</v>
+        <v>1548.231426589117</v>
       </c>
       <c r="V24" t="n">
-        <v>1358.301979430583</v>
+        <v>1319.835804037451</v>
       </c>
       <c r="W24" t="n">
-        <v>1116.986110663893</v>
+        <v>1078.51993527076</v>
       </c>
       <c r="X24" t="n">
-        <v>919.0691225416873</v>
+        <v>880.602947148555</v>
       </c>
       <c r="Y24" t="n">
-        <v>726.5477961912661</v>
+        <v>688.0816207981338</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.1124394649457</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="C25" t="n">
-        <v>188.1124394649457</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="D25" t="n">
-        <v>188.1124394649457</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="E25" t="n">
-        <v>36.10342522626457</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="F25" t="n">
-        <v>36.10342522626457</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="G25" t="n">
-        <v>36.10342522626457</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="H25" t="n">
-        <v>36.10342522626457</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="I25" t="n">
-        <v>36.10342522626457</v>
+        <v>77.12099120364852</v>
       </c>
       <c r="J25" t="n">
         <v>36.10342522626457</v>
@@ -6151,46 +6151,46 @@
         <v>100.3730120089408</v>
       </c>
       <c r="L25" t="n">
-        <v>240.2212444505141</v>
+        <v>240.221244450514</v>
       </c>
       <c r="M25" t="n">
-        <v>399.5890444445321</v>
+        <v>399.589044444532</v>
       </c>
       <c r="N25" t="n">
         <v>558.4018918284992</v>
       </c>
       <c r="O25" t="n">
-        <v>694.1727076703028</v>
+        <v>694.1727076703027</v>
       </c>
       <c r="P25" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="Q25" t="n">
-        <v>789.0639197867026</v>
+        <v>773.0769737594569</v>
       </c>
       <c r="R25" t="n">
-        <v>789.0639197867026</v>
+        <v>773.0769737594569</v>
       </c>
       <c r="S25" t="n">
-        <v>789.0639197867026</v>
+        <v>773.0769737594569</v>
       </c>
       <c r="T25" t="n">
-        <v>778.7664778869502</v>
+        <v>541.0486758568599</v>
       </c>
       <c r="U25" t="n">
-        <v>713.3217835952571</v>
+        <v>475.6039815651668</v>
       </c>
       <c r="V25" t="n">
-        <v>674.3173351565243</v>
+        <v>436.599533126434</v>
       </c>
       <c r="W25" t="n">
-        <v>609.8917896767681</v>
+        <v>372.1739876466777</v>
       </c>
       <c r="X25" t="n">
-        <v>378.6393255721439</v>
+        <v>299.1561500113714</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.1124394649457</v>
+        <v>77.12099120364852</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1258.988776837336</v>
       </c>
       <c r="E26" t="n">
-        <v>966.5984620063952</v>
+        <v>966.598462006395</v>
       </c>
       <c r="F26" t="n">
-        <v>654.8426763795173</v>
+        <v>654.8426763795172</v>
       </c>
       <c r="G26" t="n">
-        <v>341.734458178472</v>
+        <v>341.7344581784719</v>
       </c>
       <c r="H26" t="n">
         <v>117.4570592986184</v>
@@ -6224,22 +6224,22 @@
         <v>70.1807709925306</v>
       </c>
       <c r="J26" t="n">
-        <v>192.1203922017739</v>
+        <v>292.478128703973</v>
       </c>
       <c r="K26" t="n">
-        <v>607.4672291878005</v>
+        <v>707.8249656899997</v>
       </c>
       <c r="L26" t="n">
-        <v>1148.566804980891</v>
+        <v>1248.924541483091</v>
       </c>
       <c r="M26" t="n">
-        <v>1745.48441791589</v>
+        <v>1845.842154418089</v>
       </c>
       <c r="N26" t="n">
-        <v>2284.587600719316</v>
+        <v>2329.1660603947</v>
       </c>
       <c r="O26" t="n">
-        <v>2789.091406861131</v>
+        <v>2833.669866536516</v>
       </c>
       <c r="P26" t="n">
         <v>3202.221003689908</v>
@@ -6257,16 +6257,16 @@
         <v>3318.550306664297</v>
       </c>
       <c r="U26" t="n">
-        <v>3166.108404503789</v>
+        <v>3166.108404503788</v>
       </c>
       <c r="V26" t="n">
-        <v>2931.524535462682</v>
+        <v>2931.524535462681</v>
       </c>
       <c r="W26" t="n">
-        <v>2671.385010383235</v>
+        <v>2671.385010383234</v>
       </c>
       <c r="X26" t="n">
-        <v>2391.75027496768</v>
+        <v>2391.750274967679</v>
       </c>
       <c r="Y26" t="n">
         <v>2100.603824606469</v>
@@ -6306,7 +6306,7 @@
         <v>160.179480818351</v>
       </c>
       <c r="K27" t="n">
-        <v>440.5082296901252</v>
+        <v>440.5082296901251</v>
       </c>
       <c r="L27" t="n">
         <v>874.6883036242639</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>442.3236065373155</v>
+        <v>442.3236065373156</v>
       </c>
       <c r="C28" t="n">
-        <v>375.1030420619476</v>
+        <v>375.1030420619478</v>
       </c>
       <c r="D28" t="n">
-        <v>324.4265539526621</v>
+        <v>324.4265539526624</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8129447769328</v>
+        <v>274.8129447769331</v>
       </c>
       <c r="F28" t="n">
-        <v>224.7276948656617</v>
+        <v>224.727694865662</v>
       </c>
       <c r="G28" t="n">
-        <v>158.4726535964415</v>
+        <v>158.4726535964419</v>
       </c>
       <c r="H28" t="n">
         <v>103.8897557057442</v>
@@ -6418,16 +6418,16 @@
         <v>1114.081278743462</v>
       </c>
       <c r="V28" t="n">
-        <v>955.7413793648359</v>
+        <v>955.7413793648365</v>
       </c>
       <c r="W28" t="n">
-        <v>771.9803829451869</v>
+        <v>771.9803829451874</v>
       </c>
       <c r="X28" t="n">
-        <v>643.1233239035145</v>
+        <v>643.123323903515</v>
       </c>
       <c r="Y28" t="n">
-        <v>523.4835701587434</v>
+        <v>523.4835701587436</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1258.988776837336</v>
       </c>
       <c r="E29" t="n">
-        <v>966.5984620063946</v>
+        <v>966.598462006395</v>
       </c>
       <c r="F29" t="n">
-        <v>654.8426763795168</v>
+        <v>654.8426763795172</v>
       </c>
       <c r="G29" t="n">
-        <v>341.7344581784714</v>
+        <v>341.7344581784719</v>
       </c>
       <c r="H29" t="n">
         <v>117.4570592986184</v>
@@ -6461,7 +6461,7 @@
         <v>70.1807709925306</v>
       </c>
       <c r="J29" t="n">
-        <v>292.4781287039731</v>
+        <v>292.478128703973</v>
       </c>
       <c r="K29" t="n">
         <v>707.8249656899998</v>
@@ -6470,16 +6470,16 @@
         <v>1248.924541483091</v>
       </c>
       <c r="M29" t="n">
-        <v>1745.48441791589</v>
+        <v>1845.842154418089</v>
       </c>
       <c r="N29" t="n">
-        <v>2284.587600719316</v>
+        <v>2429.5237968969</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.091406861131</v>
+        <v>2934.027603038715</v>
       </c>
       <c r="P29" t="n">
-        <v>3202.221003689908</v>
+        <v>3302.578740192107</v>
       </c>
       <c r="Q29" t="n">
         <v>3460.553307868773</v>
@@ -6503,7 +6503,7 @@
         <v>2671.385010383234</v>
       </c>
       <c r="X29" t="n">
-        <v>2391.750274967679</v>
+        <v>2391.75027496768</v>
       </c>
       <c r="Y29" t="n">
         <v>2100.603824606469</v>
@@ -6546,7 +6546,7 @@
         <v>440.5082296901252</v>
       </c>
       <c r="L30" t="n">
-        <v>874.6883036242641</v>
+        <v>874.688303624264</v>
       </c>
       <c r="M30" t="n">
         <v>1439.492485852754</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>442.3236065373155</v>
+        <v>442.3236065373152</v>
       </c>
       <c r="C31" t="n">
-        <v>375.1030420619476</v>
+        <v>375.1030420619473</v>
       </c>
       <c r="D31" t="n">
-        <v>324.4265539526622</v>
+        <v>324.4265539526619</v>
       </c>
       <c r="E31" t="n">
-        <v>274.8129447769329</v>
+        <v>274.8129447769326</v>
       </c>
       <c r="F31" t="n">
-        <v>224.7276948656618</v>
+        <v>224.7276948656616</v>
       </c>
       <c r="G31" t="n">
-        <v>158.4726535964417</v>
+        <v>158.4726535964414</v>
       </c>
       <c r="H31" t="n">
         <v>103.8897557057442</v>
@@ -6619,22 +6619,22 @@
         <v>70.1807709925306</v>
       </c>
       <c r="J31" t="n">
-        <v>130.3371910802955</v>
+        <v>130.3371910802957</v>
       </c>
       <c r="K31" t="n">
-        <v>294.9645143651708</v>
+        <v>294.9645143651711</v>
       </c>
       <c r="L31" t="n">
-        <v>535.1704833089431</v>
+        <v>535.1704833089434</v>
       </c>
       <c r="M31" t="n">
-        <v>794.8960198051602</v>
+        <v>794.8960198051607</v>
       </c>
       <c r="N31" t="n">
-        <v>1054.066603691326</v>
+        <v>1054.066603691327</v>
       </c>
       <c r="O31" t="n">
-        <v>1290.195156035329</v>
+        <v>1290.19515603533</v>
       </c>
       <c r="P31" t="n">
         <v>1485.444104653928</v>
@@ -6646,25 +6646,25 @@
         <v>1535.115469720255</v>
       </c>
       <c r="S31" t="n">
-        <v>1428.494316814692</v>
+        <v>1428.494316814693</v>
       </c>
       <c r="T31" t="n">
         <v>1298.861423975048</v>
       </c>
       <c r="U31" t="n">
-        <v>1114.081278743462</v>
+        <v>1114.081278743461</v>
       </c>
       <c r="V31" t="n">
-        <v>955.741379364836</v>
+        <v>955.7413793648356</v>
       </c>
       <c r="W31" t="n">
-        <v>771.980382945187</v>
+        <v>771.9803829451865</v>
       </c>
       <c r="X31" t="n">
-        <v>643.1233239035147</v>
+        <v>643.1233239035142</v>
       </c>
       <c r="Y31" t="n">
-        <v>523.4835701587435</v>
+        <v>523.4835701587432</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1808.955690151401</v>
+        <v>1808.955690151402</v>
       </c>
       <c r="C32" t="n">
-        <v>1529.41733654716</v>
+        <v>1529.417336547161</v>
       </c>
       <c r="D32" t="n">
         <v>1258.988776837336</v>
       </c>
       <c r="E32" t="n">
-        <v>966.5984620063944</v>
+        <v>966.5984620063948</v>
       </c>
       <c r="F32" t="n">
-        <v>654.8426763795164</v>
+        <v>654.8426763795169</v>
       </c>
       <c r="G32" t="n">
-        <v>341.734458178471</v>
+        <v>341.7344581784719</v>
       </c>
       <c r="H32" t="n">
         <v>117.4570592986185</v>
@@ -6698,25 +6698,25 @@
         <v>70.1807709925306</v>
       </c>
       <c r="J32" t="n">
-        <v>292.4781287039729</v>
+        <v>247.8996690285892</v>
       </c>
       <c r="K32" t="n">
-        <v>663.2465060146155</v>
+        <v>663.2465060146159</v>
       </c>
       <c r="L32" t="n">
-        <v>1204.346081807706</v>
+        <v>1204.346081807707</v>
       </c>
       <c r="M32" t="n">
         <v>1801.263694742705</v>
       </c>
       <c r="N32" t="n">
-        <v>2284.587600719316</v>
+        <v>2384.945337221515</v>
       </c>
       <c r="O32" t="n">
-        <v>2789.091406861131</v>
+        <v>2889.449143363331</v>
       </c>
       <c r="P32" t="n">
-        <v>3202.221003689908</v>
+        <v>3302.578740192107</v>
       </c>
       <c r="Q32" t="n">
         <v>3460.553307868773</v>
@@ -6731,10 +6731,10 @@
         <v>3318.550306664297</v>
       </c>
       <c r="U32" t="n">
-        <v>3166.108404503788</v>
+        <v>3166.108404503789</v>
       </c>
       <c r="V32" t="n">
-        <v>2931.524535462681</v>
+        <v>2931.524535462682</v>
       </c>
       <c r="W32" t="n">
         <v>2671.385010383234</v>
@@ -6777,16 +6777,16 @@
         <v>70.1807709925306</v>
       </c>
       <c r="J33" t="n">
-        <v>160.179480818351</v>
+        <v>160.1794808183511</v>
       </c>
       <c r="K33" t="n">
         <v>440.5082296901252</v>
       </c>
       <c r="L33" t="n">
-        <v>874.6883036242639</v>
+        <v>874.688303624264</v>
       </c>
       <c r="M33" t="n">
-        <v>1439.492485852753</v>
+        <v>1439.492485852754</v>
       </c>
       <c r="N33" t="n">
         <v>1519.836543086607</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442.3236065373163</v>
+        <v>442.3236065373161</v>
       </c>
       <c r="C34" t="n">
-        <v>375.1030420619483</v>
+        <v>375.1030420619481</v>
       </c>
       <c r="D34" t="n">
-        <v>324.4265539526627</v>
+        <v>324.4265539526626</v>
       </c>
       <c r="E34" t="n">
-        <v>274.8129447769333</v>
+        <v>274.8129447769332</v>
       </c>
       <c r="F34" t="n">
-        <v>224.7276948656621</v>
+        <v>224.727694865662</v>
       </c>
       <c r="G34" t="n">
-        <v>158.4726535964418</v>
+        <v>158.4726535964417</v>
       </c>
       <c r="H34" t="n">
         <v>103.8897557057443</v>
@@ -6859,19 +6859,19 @@
         <v>130.3371910802956</v>
       </c>
       <c r="K34" t="n">
-        <v>294.9645143651708</v>
+        <v>294.9645143651736</v>
       </c>
       <c r="L34" t="n">
-        <v>535.1704833089429</v>
+        <v>535.1704833089458</v>
       </c>
       <c r="M34" t="n">
-        <v>794.89601980516</v>
+        <v>794.8960198051628</v>
       </c>
       <c r="N34" t="n">
         <v>1054.066603691329</v>
       </c>
       <c r="O34" t="n">
-        <v>1290.195156035332</v>
+        <v>1290.195156035331</v>
       </c>
       <c r="P34" t="n">
         <v>1485.44410465393</v>
@@ -6892,16 +6892,16 @@
         <v>1114.081278743463</v>
       </c>
       <c r="V34" t="n">
-        <v>955.7413793648371</v>
+        <v>955.741379364837</v>
       </c>
       <c r="W34" t="n">
-        <v>771.980382945188</v>
+        <v>771.9803829451879</v>
       </c>
       <c r="X34" t="n">
-        <v>643.1233239035155</v>
+        <v>643.1233239035154</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.4835701587443</v>
+        <v>523.4835701587442</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1350.057431477639</v>
+        <v>1350.05743147764</v>
       </c>
       <c r="C35" t="n">
         <v>1135.850896898431</v>
       </c>
       <c r="D35" t="n">
-        <v>930.7541562136387</v>
+        <v>930.7541562136391</v>
       </c>
       <c r="E35" t="n">
-        <v>703.6956604077297</v>
+        <v>703.6956604077302</v>
       </c>
       <c r="F35" t="n">
-        <v>457.2716938058843</v>
+        <v>457.2716938058848</v>
       </c>
       <c r="G35" t="n">
         <v>209.495294629871</v>
@@ -6935,25 +6935,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J35" t="n">
-        <v>50.54971477505016</v>
+        <v>74.95308660218382</v>
       </c>
       <c r="K35" t="n">
-        <v>365.5388152588778</v>
+        <v>389.9421870860114</v>
       </c>
       <c r="L35" t="n">
-        <v>806.2806545497697</v>
+        <v>830.6840263769034</v>
       </c>
       <c r="M35" t="n">
-        <v>1302.840530982569</v>
+        <v>1327.243902809702</v>
       </c>
       <c r="N35" t="n">
-        <v>1786.16443695918</v>
+        <v>1810.567808786314</v>
       </c>
       <c r="O35" t="n">
-        <v>2190.310506598797</v>
+        <v>2214.71387842593</v>
       </c>
       <c r="P35" t="n">
-        <v>2503.082366925374</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="Q35" t="n">
         <v>2527.485738752508</v>
@@ -6968,19 +6968,19 @@
         <v>2467.66113384034</v>
       </c>
       <c r="U35" t="n">
-        <v>2380.551050704863</v>
+        <v>2380.551050704864</v>
       </c>
       <c r="V35" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W35" t="n">
-        <v>2016.491294634374</v>
+        <v>2016.491294634375</v>
       </c>
       <c r="X35" t="n">
         <v>1802.188378243852</v>
       </c>
       <c r="Y35" t="n">
-        <v>1576.373746907674</v>
+        <v>1576.373746907675</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.3792774837674</v>
+        <v>915.3792774837672</v>
       </c>
       <c r="C36" t="n">
-        <v>753.6756047247222</v>
+        <v>753.6756047247219</v>
       </c>
       <c r="D36" t="n">
-        <v>614.8369677149344</v>
+        <v>614.836967714934</v>
       </c>
       <c r="E36" t="n">
-        <v>467.8089577718056</v>
+        <v>467.8089577718051</v>
       </c>
       <c r="F36" t="n">
-        <v>333.1151597216798</v>
+        <v>333.1151597216795</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7078824197579</v>
+        <v>204.7078824197577</v>
       </c>
       <c r="H36" t="n">
-        <v>107.8723597466996</v>
+        <v>107.8723597466995</v>
       </c>
       <c r="I36" t="n">
         <v>50.54971477505016</v>
@@ -7044,7 +7044,7 @@
         <v>2340.812536422166</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.422185386991</v>
+        <v>2153.42218538699</v>
       </c>
       <c r="U36" t="n">
         <v>1934.948526056011</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.3859523255625</v>
+        <v>53.36168246957336</v>
       </c>
       <c r="C37" t="n">
-        <v>215.4972068752271</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="D37" t="n">
-        <v>215.4972068752271</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="E37" t="n">
-        <v>215.4972068752271</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="F37" t="n">
-        <v>215.4972068752271</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="G37" t="n">
-        <v>91.56728075243409</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="H37" t="n">
-        <v>91.56728075243409</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I37" t="n">
-        <v>91.56728075243409</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J37" t="n">
         <v>50.54971477505016</v>
@@ -7114,31 +7114,31 @@
         <v>803.5102093354883</v>
       </c>
       <c r="Q37" t="n">
-        <v>787.5232633082428</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="R37" t="n">
-        <v>787.5232633082428</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="S37" t="n">
-        <v>746.2339294277127</v>
+        <v>762.2208754549582</v>
       </c>
       <c r="T37" t="n">
-        <v>681.9328556130999</v>
+        <v>697.9198016403454</v>
       </c>
       <c r="U37" t="n">
-        <v>562.4845294065465</v>
+        <v>566.1874836385416</v>
       </c>
       <c r="V37" t="n">
-        <v>469.4764490529533</v>
+        <v>473.1794032849484</v>
       </c>
       <c r="W37" t="n">
-        <v>351.0472716583367</v>
+        <v>354.7502258903318</v>
       </c>
       <c r="X37" t="n">
-        <v>287.5220316416967</v>
+        <v>123.4977617857076</v>
       </c>
       <c r="Y37" t="n">
-        <v>233.2140969219581</v>
+        <v>69.18982706596893</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>1350.057431477639</v>
       </c>
       <c r="C38" t="n">
-        <v>1135.850896898431</v>
+        <v>1135.85089689843</v>
       </c>
       <c r="D38" t="n">
-        <v>930.7541562136382</v>
+        <v>930.7541562136379</v>
       </c>
       <c r="E38" t="n">
-        <v>703.6956604077293</v>
+        <v>703.695660407729</v>
       </c>
       <c r="F38" t="n">
-        <v>457.2716938058838</v>
+        <v>457.2716938058834</v>
       </c>
       <c r="G38" t="n">
-        <v>209.495294629871</v>
+        <v>209.4952946298711</v>
       </c>
       <c r="H38" t="n">
-        <v>50.54971477505014</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I38" t="n">
-        <v>50.54971477505014</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J38" t="n">
         <v>172.4893359842935</v>
@@ -7181,28 +7181,28 @@
         <v>928.220275759013</v>
       </c>
       <c r="M38" t="n">
-        <v>1424.780152191812</v>
+        <v>1169.269335133036</v>
       </c>
       <c r="N38" t="n">
-        <v>1652.593241109647</v>
+        <v>1652.593241109648</v>
       </c>
       <c r="O38" t="n">
-        <v>2056.739310749263</v>
+        <v>2056.739310749264</v>
       </c>
       <c r="P38" t="n">
-        <v>2369.511171075841</v>
+        <v>2369.511171075842</v>
       </c>
       <c r="Q38" t="n">
-        <v>2527.485738752507</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="R38" t="n">
-        <v>2527.485738752507</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="S38" t="n">
-        <v>2521.664765755199</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T38" t="n">
-        <v>2467.661133840339</v>
+        <v>2467.66113384034</v>
       </c>
       <c r="U38" t="n">
         <v>2380.551050704863</v>
@@ -7217,7 +7217,7 @@
         <v>1802.188378243851</v>
       </c>
       <c r="Y38" t="n">
-        <v>1576.373746907674</v>
+        <v>1576.373746907673</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.3792774837672</v>
+        <v>915.3792774837674</v>
       </c>
       <c r="C39" t="n">
-        <v>753.6756047247219</v>
+        <v>753.6756047247222</v>
       </c>
       <c r="D39" t="n">
-        <v>614.836967714934</v>
+        <v>614.8369677149344</v>
       </c>
       <c r="E39" t="n">
-        <v>467.8089577718051</v>
+        <v>467.8089577718056</v>
       </c>
       <c r="F39" t="n">
-        <v>333.1151597216795</v>
+        <v>333.1151597216798</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7078824197577</v>
+        <v>204.7078824197579</v>
       </c>
       <c r="H39" t="n">
         <v>107.8723597466995</v>
       </c>
       <c r="I39" t="n">
-        <v>50.54971477505014</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J39" t="n">
         <v>140.5484246008706</v>
@@ -7263,16 +7263,16 @@
         <v>1419.861429635273</v>
       </c>
       <c r="N39" t="n">
-        <v>1500.205486869126</v>
+        <v>1500.205486869127</v>
       </c>
       <c r="O39" t="n">
-        <v>1967.311585229521</v>
+        <v>1967.311585229522</v>
       </c>
       <c r="P39" t="n">
-        <v>2329.526291777778</v>
+        <v>2329.526291777779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.485738752507</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="R39" t="n">
         <v>2487.645453112272</v>
@@ -7281,7 +7281,7 @@
         <v>2340.812536422166</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.42218538699</v>
+        <v>2153.422185386991</v>
       </c>
       <c r="U39" t="n">
         <v>1934.948526056011</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>217.3859523255623</v>
+        <v>233.3728983528076</v>
       </c>
       <c r="C40" t="n">
-        <v>215.4972068752269</v>
+        <v>231.4841529024721</v>
       </c>
       <c r="D40" t="n">
-        <v>215.4972068752269</v>
+        <v>203.4819512579191</v>
       </c>
       <c r="E40" t="n">
-        <v>215.4972068752269</v>
+        <v>51.47293701923797</v>
       </c>
       <c r="F40" t="n">
-        <v>215.4972068752269</v>
+        <v>51.47293701923797</v>
       </c>
       <c r="G40" t="n">
-        <v>207.5280177286994</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="H40" t="n">
-        <v>50.54971477505014</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I40" t="n">
-        <v>50.54971477505014</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J40" t="n">
-        <v>50.54971477505014</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K40" t="n">
         <v>114.8193015577264</v>
@@ -7339,43 +7339,43 @@
         <v>254.6675339992996</v>
       </c>
       <c r="M40" t="n">
-        <v>414.0353339933176</v>
+        <v>414.0353339933177</v>
       </c>
       <c r="N40" t="n">
-        <v>572.8481813772847</v>
+        <v>572.8481813772848</v>
       </c>
       <c r="O40" t="n">
-        <v>708.6189972190882</v>
+        <v>708.6189972190884</v>
       </c>
       <c r="P40" t="n">
-        <v>803.5102093354881</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="Q40" t="n">
-        <v>787.5232633082426</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="R40" t="n">
-        <v>787.5232633082426</v>
+        <v>803.5102093354883</v>
       </c>
       <c r="S40" t="n">
-        <v>746.2339294277125</v>
+        <v>762.2208754549582</v>
       </c>
       <c r="T40" t="n">
-        <v>681.9328556130997</v>
+        <v>697.9198016403453</v>
       </c>
       <c r="U40" t="n">
-        <v>562.4845294065462</v>
+        <v>578.4714754337919</v>
       </c>
       <c r="V40" t="n">
-        <v>469.4764490529531</v>
+        <v>485.4633950801987</v>
       </c>
       <c r="W40" t="n">
-        <v>351.0472716583365</v>
+        <v>367.034217685582</v>
       </c>
       <c r="X40" t="n">
-        <v>287.5220316416965</v>
+        <v>303.508977668942</v>
       </c>
       <c r="Y40" t="n">
-        <v>233.2140969219579</v>
+        <v>249.2010429492032</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1135.850896898431</v>
       </c>
       <c r="D41" t="n">
-        <v>930.7541562136387</v>
+        <v>930.7541562136385</v>
       </c>
       <c r="E41" t="n">
-        <v>703.6956604077297</v>
+        <v>703.6956604077295</v>
       </c>
       <c r="F41" t="n">
-        <v>457.2716938058843</v>
+        <v>457.2716938058841</v>
       </c>
       <c r="G41" t="n">
         <v>209.4952946298711</v>
@@ -7409,25 +7409,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J41" t="n">
-        <v>50.54971477505016</v>
+        <v>172.4893359842935</v>
       </c>
       <c r="K41" t="n">
-        <v>365.5388152588778</v>
+        <v>487.4784364681211</v>
       </c>
       <c r="L41" t="n">
-        <v>806.2806545497697</v>
+        <v>928.220275759013</v>
       </c>
       <c r="M41" t="n">
-        <v>1302.840530982569</v>
+        <v>1424.780152191812</v>
       </c>
       <c r="N41" t="n">
-        <v>1786.16443695918</v>
+        <v>1908.104058168424</v>
       </c>
       <c r="O41" t="n">
-        <v>2190.310506598797</v>
+        <v>2312.25012780804</v>
       </c>
       <c r="P41" t="n">
-        <v>2503.082366925374</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="Q41" t="n">
         <v>2527.485738752508</v>
@@ -7436,19 +7436,19 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S41" t="n">
-        <v>2521.664765755201</v>
+        <v>2521.6647657552</v>
       </c>
       <c r="T41" t="n">
         <v>2467.66113384034</v>
       </c>
       <c r="U41" t="n">
-        <v>2380.551050704864</v>
+        <v>2380.551050704863</v>
       </c>
       <c r="V41" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W41" t="n">
-        <v>2016.491294634375</v>
+        <v>2016.491294634374</v>
       </c>
       <c r="X41" t="n">
         <v>1802.188378243852</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.3792774837672</v>
+        <v>915.3792774837674</v>
       </c>
       <c r="C42" t="n">
-        <v>753.6756047247219</v>
+        <v>753.6756047247222</v>
       </c>
       <c r="D42" t="n">
-        <v>614.836967714934</v>
+        <v>614.8369677149344</v>
       </c>
       <c r="E42" t="n">
-        <v>467.8089577718052</v>
+        <v>467.8089577718056</v>
       </c>
       <c r="F42" t="n">
-        <v>333.1151597216796</v>
+        <v>333.1151597216798</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7078824197577</v>
+        <v>204.7078824197579</v>
       </c>
       <c r="H42" t="n">
-        <v>107.8723597466996</v>
+        <v>107.8723597466995</v>
       </c>
       <c r="I42" t="n">
         <v>50.54971477505016</v>
@@ -7518,7 +7518,7 @@
         <v>2340.812536422166</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.42218538699</v>
+        <v>2153.422185386991</v>
       </c>
       <c r="U42" t="n">
         <v>1934.948526056011</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.64567426482296</v>
+        <v>53.36168246957347</v>
       </c>
       <c r="C43" t="n">
-        <v>63.7569288144874</v>
+        <v>51.47293701923797</v>
       </c>
       <c r="D43" t="n">
-        <v>63.7569288144874</v>
+        <v>51.47293701923797</v>
       </c>
       <c r="E43" t="n">
-        <v>63.7569288144874</v>
+        <v>51.47293701923797</v>
       </c>
       <c r="F43" t="n">
-        <v>63.7569288144874</v>
+        <v>51.47293701923797</v>
       </c>
       <c r="G43" t="n">
-        <v>62.83370657029953</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="H43" t="n">
-        <v>62.83370657029953</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I43" t="n">
-        <v>62.83370657029953</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J43" t="n">
         <v>50.54971477505016</v>
@@ -7594,25 +7594,25 @@
         <v>803.5102093354883</v>
       </c>
       <c r="S43" t="n">
-        <v>762.2208754549581</v>
+        <v>762.2208754549582</v>
       </c>
       <c r="T43" t="n">
-        <v>697.9198016403452</v>
+        <v>697.9198016403453</v>
       </c>
       <c r="U43" t="n">
-        <v>578.4714754337916</v>
+        <v>578.4714754337919</v>
       </c>
       <c r="V43" t="n">
-        <v>485.4633950801984</v>
+        <v>473.1794032849488</v>
       </c>
       <c r="W43" t="n">
-        <v>367.0342176855817</v>
+        <v>354.750225890332</v>
       </c>
       <c r="X43" t="n">
-        <v>303.5089776689416</v>
+        <v>123.4977617857078</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.47381886121863</v>
+        <v>69.1898270659691</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1350.05743147764</v>
+        <v>1350.057431477639</v>
       </c>
       <c r="C44" t="n">
-        <v>1135.850896898432</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D44" t="n">
-        <v>930.7541562136395</v>
+        <v>930.7541562136385</v>
       </c>
       <c r="E44" t="n">
-        <v>703.6956604077307</v>
+        <v>703.6956604077293</v>
       </c>
       <c r="F44" t="n">
-        <v>457.2716938058854</v>
+        <v>457.2716938058843</v>
       </c>
       <c r="G44" t="n">
-        <v>209.495294629871</v>
+        <v>209.4952946298711</v>
       </c>
       <c r="H44" t="n">
         <v>50.54971477505016</v>
@@ -7646,25 +7646,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J44" t="n">
-        <v>74.95308660218382</v>
+        <v>172.4893359842935</v>
       </c>
       <c r="K44" t="n">
-        <v>389.9421870860114</v>
+        <v>487.4784364681211</v>
       </c>
       <c r="L44" t="n">
-        <v>830.6840263769034</v>
+        <v>928.220275759013</v>
       </c>
       <c r="M44" t="n">
-        <v>1327.243902809702</v>
+        <v>1169.269335133036</v>
       </c>
       <c r="N44" t="n">
-        <v>1810.567808786314</v>
+        <v>1652.593241109648</v>
       </c>
       <c r="O44" t="n">
-        <v>2214.71387842593</v>
+        <v>2056.739310749264</v>
       </c>
       <c r="P44" t="n">
-        <v>2527.485738752508</v>
+        <v>2369.511171075842</v>
       </c>
       <c r="Q44" t="n">
         <v>2527.485738752508</v>
@@ -7673,10 +7673,10 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S44" t="n">
-        <v>2521.664765755201</v>
+        <v>2521.6647657552</v>
       </c>
       <c r="T44" t="n">
-        <v>2467.66113384034</v>
+        <v>2467.661133840341</v>
       </c>
       <c r="U44" t="n">
         <v>2380.551050704864</v>
@@ -7691,7 +7691,7 @@
         <v>1802.188378243852</v>
       </c>
       <c r="Y44" t="n">
-        <v>1576.373746907675</v>
+        <v>1576.373746907674</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.3792774837674</v>
+        <v>915.3792774837677</v>
       </c>
       <c r="C45" t="n">
-        <v>753.6756047247222</v>
+        <v>753.6756047247225</v>
       </c>
       <c r="D45" t="n">
-        <v>614.8369677149344</v>
+        <v>614.8369677149345</v>
       </c>
       <c r="E45" t="n">
-        <v>467.8089577718056</v>
+        <v>467.8089577718058</v>
       </c>
       <c r="F45" t="n">
-        <v>333.1151597216798</v>
+        <v>333.1151597216795</v>
       </c>
       <c r="G45" t="n">
-        <v>204.7078824197581</v>
+        <v>204.7078824197577</v>
       </c>
       <c r="H45" t="n">
-        <v>107.8723597466996</v>
+        <v>107.8723597466995</v>
       </c>
       <c r="I45" t="n">
         <v>50.54971477505016</v>
@@ -7737,10 +7737,10 @@
         <v>1419.861429635273</v>
       </c>
       <c r="N45" t="n">
-        <v>1500.205486869127</v>
+        <v>1862.420193417384</v>
       </c>
       <c r="O45" t="n">
-        <v>1967.311585229522</v>
+        <v>2329.526291777779</v>
       </c>
       <c r="P45" t="n">
         <v>2329.526291777779</v>
@@ -7749,7 +7749,7 @@
         <v>2527.485738752508</v>
       </c>
       <c r="R45" t="n">
-        <v>2487.645453112272</v>
+        <v>2487.645453112273</v>
       </c>
       <c r="S45" t="n">
         <v>2340.812536422166</v>
@@ -7767,10 +7767,10 @@
         <v>1465.237034737655</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.320046615449</v>
+        <v>1267.32004661545</v>
       </c>
       <c r="Y45" t="n">
-        <v>1074.798720265028</v>
+        <v>1074.798720265029</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>94.37924844695718</v>
+        <v>53.36168246957353</v>
       </c>
       <c r="C46" t="n">
-        <v>92.49050299662179</v>
+        <v>51.472937019238</v>
       </c>
       <c r="D46" t="n">
-        <v>92.49050299662179</v>
+        <v>51.472937019238</v>
       </c>
       <c r="E46" t="n">
-        <v>92.49050299662179</v>
+        <v>51.472937019238</v>
       </c>
       <c r="F46" t="n">
-        <v>92.49050299662179</v>
+        <v>51.472937019238</v>
       </c>
       <c r="G46" t="n">
-        <v>91.56728075243409</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="H46" t="n">
-        <v>91.56728075243409</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I46" t="n">
-        <v>91.56728075243409</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J46" t="n">
         <v>50.54971477505016</v>
@@ -7825,31 +7825,31 @@
         <v>803.5102093354883</v>
       </c>
       <c r="Q46" t="n">
-        <v>787.5232633082428</v>
+        <v>791.2262175402386</v>
       </c>
       <c r="R46" t="n">
-        <v>787.5232633082428</v>
+        <v>791.2262175402386</v>
       </c>
       <c r="S46" t="n">
-        <v>746.2339294277128</v>
+        <v>749.9368836597084</v>
       </c>
       <c r="T46" t="n">
-        <v>681.9328556131001</v>
+        <v>685.6358098450955</v>
       </c>
       <c r="U46" t="n">
-        <v>562.4845294065467</v>
+        <v>566.1874836385421</v>
       </c>
       <c r="V46" t="n">
-        <v>346.4697451743477</v>
+        <v>473.1794032849489</v>
       </c>
       <c r="W46" t="n">
-        <v>228.0405677797312</v>
+        <v>354.7502258903322</v>
       </c>
       <c r="X46" t="n">
-        <v>164.5153277630913</v>
+        <v>123.4977617857079</v>
       </c>
       <c r="Y46" t="n">
-        <v>110.2073930433527</v>
+        <v>69.18982706596918</v>
       </c>
     </row>
   </sheetData>
@@ -8696,19 +8696,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>99.46345316426107</v>
+        <v>82.7919607802791</v>
       </c>
       <c r="N11" t="n">
-        <v>80.34503610263859</v>
+        <v>531.6378514309459</v>
       </c>
       <c r="O11" t="n">
-        <v>495.0402356415689</v>
+        <v>219.9891830777142</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>116.4392174774051</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>73.01055823968257</v>
+        <v>73.01055823968252</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,16 +8775,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>82.99313878868949</v>
+        <v>448.8665797465243</v>
       </c>
       <c r="N12" t="n">
-        <v>24.00592370515638</v>
+        <v>24.00592370515626</v>
       </c>
       <c r="O12" t="n">
-        <v>491.489488609879</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>48.1281582740836</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8930,13 +8930,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>97.76580185407848</v>
       </c>
       <c r="M14" t="n">
-        <v>82.79196078027924</v>
+        <v>93.36441489746043</v>
       </c>
       <c r="N14" t="n">
-        <v>97.01652848662042</v>
+        <v>531.6378514309458</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -9012,16 +9012,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>357.9587920436752</v>
+        <v>34.90730789672764</v>
       </c>
       <c r="N15" t="n">
-        <v>24.00592370515638</v>
+        <v>24.00592370515626</v>
       </c>
       <c r="O15" t="n">
-        <v>491.489488609879</v>
+        <v>448.6675317989922</v>
       </c>
       <c r="P15" t="n">
-        <v>48.12815827408368</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9170,10 +9170,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>82.79196078027915</v>
+        <v>259.033723544732</v>
       </c>
       <c r="N17" t="n">
-        <v>256.5867988670909</v>
+        <v>80.3450361026385</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9240,22 +9240,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968255</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>43.52671764789213</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>430.651082332445</v>
+        <v>34.9073078967277</v>
       </c>
       <c r="N18" t="n">
-        <v>24.00592370515631</v>
+        <v>72.09175459711817</v>
       </c>
       <c r="O18" t="n">
-        <v>491.4894886098789</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>96.65426516890469</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>97.76580185407853</v>
+        <v>348.0153987495448</v>
       </c>
       <c r="M20" t="n">
-        <v>93.36441489746021</v>
+        <v>534.0847761085867</v>
       </c>
       <c r="N20" t="n">
-        <v>531.6378514309457</v>
+        <v>531.6378514309459</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>86.81188247023911</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>116.4392174774051</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968255</v>
       </c>
       <c r="K21" t="n">
         <v>60.64445572062075</v>
@@ -9486,13 +9486,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>389.7853664593102</v>
+        <v>486.2001232250351</v>
       </c>
       <c r="N21" t="n">
-        <v>475.2987390334635</v>
+        <v>469.7917699705882</v>
       </c>
       <c r="O21" t="n">
-        <v>491.4894886098789</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P21" t="n">
         <v>48.12815827408364</v>
@@ -9641,13 +9641,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>97.76580185407853</v>
+        <v>97.76580185407859</v>
       </c>
       <c r="M23" t="n">
-        <v>534.0847761085862</v>
+        <v>534.0847761085863</v>
       </c>
       <c r="N23" t="n">
-        <v>90.9174902198191</v>
+        <v>90.91749021981974</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968257</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9723,13 +9723,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>34.9073078967277</v>
+        <v>82.99313878868904</v>
       </c>
       <c r="N24" t="n">
-        <v>24.00592370515631</v>
+        <v>24.00592370515636</v>
       </c>
       <c r="O24" t="n">
-        <v>448.6675317989909</v>
+        <v>491.4894886098789</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>105.1615370726854</v>
+        <v>105.1615370726857</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>105.161537072685</v>
+        <v>105.1615370726852</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>105.1615370726854</v>
+        <v>105.1615370726852</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>96.65426516890469</v>
+        <v>121.3041357013629</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.0890880098636</v>
+        <v>116.4392174774051</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10829,10 +10829,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>326.2758591378784</v>
       </c>
       <c r="N38" t="n">
-        <v>310.4592673327747</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>105.161537072685</v>
+        <v>105.1615370726859</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>96.65426516890469</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11075,10 +11075,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229274</v>
+        <v>319.8168566005948</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.0890880098636</v>
+        <v>116.4392174774051</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.3041357013629</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>326.2758591378784</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>116.4392174774051</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11385,13 +11385,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>105.1615370726859</v>
+        <v>471.0349780305206</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>48.12815827408362</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.8850331288904</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>248.8963500865722</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>239.8776541311002</v>
       </c>
       <c r="E11" t="n">
-        <v>80.56536359902118</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>280.7916077889828</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>123.0708631572776</v>
+        <v>123.0708631572777</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>204.3914103690696</v>
       </c>
       <c r="W11" t="n">
-        <v>229.6915098470264</v>
+        <v>229.6915098470265</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>189.4649558061247</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.3883658759718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>239.8776541311003</v>
+        <v>239.8776541311002</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>59.12703810043191</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>265.5241620597154</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>194.1880049094286</v>
       </c>
       <c r="I14" t="n">
-        <v>18.95690544140089</v>
+        <v>18.95690544140081</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.59464412049033</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>90.2954764488677</v>
       </c>
       <c r="U14" t="n">
-        <v>123.0708631572778</v>
+        <v>123.0708631572777</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.9917680797731</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>114881.4947260956</v>
       </c>
       <c r="C2" t="n">
-        <v>114881.4947260956</v>
+        <v>114881.4947260957</v>
       </c>
       <c r="D2" t="n">
-        <v>114881.4947260956</v>
+        <v>114881.4947260957</v>
       </c>
       <c r="E2" t="n">
         <v>100393.0197179651</v>
@@ -26335,7 +26335,7 @@
         <v>115143.6090741273</v>
       </c>
       <c r="J2" t="n">
-        <v>115143.6090741273</v>
+        <v>115143.6090741274</v>
       </c>
       <c r="K2" t="n">
         <v>115143.6090741274</v>
@@ -26344,16 +26344,16 @@
         <v>115143.6090741273</v>
       </c>
       <c r="M2" t="n">
-        <v>115143.6090741274</v>
+        <v>115143.6090741273</v>
       </c>
       <c r="N2" t="n">
-        <v>115143.6090741274</v>
+        <v>115143.6090741273</v>
       </c>
       <c r="O2" t="n">
         <v>115143.6090741273</v>
       </c>
       <c r="P2" t="n">
-        <v>115143.6090741273</v>
+        <v>115143.6090741274</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356901.2563746109</v>
+        <v>356901.2563746111</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>72236.38115909428</v>
+        <v>72236.38115909412</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120312.4428466252</v>
+        <v>120312.4428466251</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72236.38115909419</v>
+        <v>72236.38115909403</v>
       </c>
       <c r="M3" t="n">
-        <v>103055.0537486388</v>
+        <v>103055.0537486389</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8860.779650763687</v>
+        <v>8860.779650763698</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>415219.1534460828</v>
       </c>
       <c r="E4" t="n">
-        <v>292825.0084179231</v>
+        <v>292825.0084179229</v>
       </c>
       <c r="F4" t="n">
         <v>292825.0084179229</v>
       </c>
       <c r="G4" t="n">
+        <v>348860.1176001109</v>
+      </c>
+      <c r="H4" t="n">
         <v>348860.1176001111</v>
       </c>
-      <c r="H4" t="n">
-        <v>348860.1176001109</v>
-      </c>
       <c r="I4" t="n">
-        <v>348860.1176001109</v>
+        <v>348860.117600111</v>
       </c>
       <c r="J4" t="n">
         <v>338193.2769757742</v>
       </c>
       <c r="K4" t="n">
-        <v>338193.2769757741</v>
+        <v>338193.2769757742</v>
       </c>
       <c r="L4" t="n">
         <v>338193.2769757741</v>
@@ -26454,10 +26454,10 @@
         <v>339446.9901772323</v>
       </c>
       <c r="O4" t="n">
+        <v>339446.9901772323</v>
+      </c>
+      <c r="P4" t="n">
         <v>339446.9901772322</v>
-      </c>
-      <c r="P4" t="n">
-        <v>339446.9901772323</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41524.90096894783</v>
+        <v>41524.90096894784</v>
       </c>
       <c r="F5" t="n">
-        <v>41524.90096894782</v>
+        <v>41524.90096894784</v>
       </c>
       <c r="G5" t="n">
         <v>49115.95137852769</v>
       </c>
       <c r="H5" t="n">
-        <v>49115.95137852768</v>
+        <v>49115.95137852769</v>
       </c>
       <c r="I5" t="n">
         <v>49115.95137852767</v>
@@ -26503,13 +26503,13 @@
         <v>55600.50041746883</v>
       </c>
       <c r="N5" t="n">
-        <v>55600.50041746881</v>
+        <v>55600.50041746882</v>
       </c>
       <c r="O5" t="n">
         <v>55600.50041746882</v>
       </c>
       <c r="P5" t="n">
-        <v>55600.50041746884</v>
+        <v>55600.50041746882</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-333965.2587199871</v>
+        <v>-333969.6272924544</v>
       </c>
       <c r="C6" t="n">
-        <v>-333965.2587199872</v>
+        <v>-333969.6272924543</v>
       </c>
       <c r="D6" t="n">
-        <v>-333965.2587199871</v>
+        <v>-333969.6272924543</v>
       </c>
       <c r="E6" t="n">
-        <v>-590858.1460435167</v>
+        <v>-591103.9891994527</v>
       </c>
       <c r="F6" t="n">
-        <v>-233956.8896689055</v>
+        <v>-234202.7328248417</v>
       </c>
       <c r="G6" t="n">
-        <v>-355068.8410636058</v>
+        <v>-355068.8410636055</v>
       </c>
       <c r="H6" t="n">
-        <v>-282832.4599045113</v>
+        <v>-282832.4599045115</v>
       </c>
       <c r="I6" t="n">
-        <v>-282832.4599045113</v>
+        <v>-282832.4599045114</v>
       </c>
       <c r="J6" t="n">
-        <v>-408444.7570043468</v>
+        <v>-408444.7570043465</v>
       </c>
       <c r="K6" t="n">
-        <v>-288132.3141577213</v>
+        <v>-288132.3141577215</v>
       </c>
       <c r="L6" t="n">
-        <v>-360368.6953168157</v>
+        <v>-360368.6953168155</v>
       </c>
       <c r="M6" t="n">
-        <v>-382958.9352692126</v>
+        <v>-382958.9352692127</v>
       </c>
       <c r="N6" t="n">
-        <v>-279903.8815205738</v>
+        <v>-279903.8815205737</v>
       </c>
       <c r="O6" t="n">
-        <v>-288764.6611713374</v>
+        <v>-288764.6611713375</v>
       </c>
       <c r="P6" t="n">
-        <v>-279903.8815205738</v>
+        <v>-279903.8815205736</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G2" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="H2" t="n">
         <v>219.5135474428162</v>
@@ -26722,10 +26722,10 @@
         <v>166.0499518471044</v>
       </c>
       <c r="O2" t="n">
+        <v>166.0499518471044</v>
+      </c>
+      <c r="P2" t="n">
         <v>166.0499518471043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>166.0499518471045</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879124</v>
       </c>
       <c r="F3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879124</v>
       </c>
       <c r="G3" t="n">
         <v>147.8469626879123</v>
@@ -26756,13 +26756,13 @@
         <v>147.8469626879123</v>
       </c>
       <c r="I3" t="n">
+        <v>147.8469626879122</v>
+      </c>
+      <c r="J3" t="n">
+        <v>147.8469626879122</v>
+      </c>
+      <c r="K3" t="n">
         <v>147.8469626879123</v>
-      </c>
-      <c r="J3" t="n">
-        <v>147.8469626879123</v>
-      </c>
-      <c r="K3" t="n">
-        <v>147.8469626879124</v>
       </c>
       <c r="L3" t="n">
         <v>147.8469626879123</v>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="F4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="G4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="H4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="I4" t="n">
         <v>451.2928153283071</v>
@@ -26823,7 +26823,7 @@
         <v>631.871434688127</v>
       </c>
       <c r="N4" t="n">
-        <v>631.8714346881268</v>
+        <v>631.871434688127</v>
       </c>
       <c r="O4" t="n">
         <v>631.871434688127</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>90.29547644886784</v>
+        <v>90.29547644886765</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.07597456345472</v>
+        <v>11.07597456345462</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886773</v>
+        <v>90.29547644886753</v>
       </c>
       <c r="M2" t="n">
-        <v>64.67850083478213</v>
+        <v>64.67850083478226</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345461</v>
+        <v>11.07597456345462</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>147.8469626879122</v>
+        <v>147.8469626879124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>425.9668220783254</v>
+        <v>425.9668220783253</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>205.9046126098019</v>
+        <v>205.904612609802</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886784</v>
+        <v>90.29547644886765</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345472</v>
+        <v>11.07597456345462</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>52.3964593378205</v>
+        <v>52.39645933782045</v>
       </c>
       <c r="S11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y11" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D12" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H12" t="n">
         <v>95.86716744632758</v>
       </c>
       <c r="I12" t="n">
-        <v>48.60817180563276</v>
+        <v>56.74941852193288</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.44188278383304</v>
+        <v>33.39550253257841</v>
       </c>
       <c r="S12" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,37 +28245,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J13" t="n">
-        <v>40.6073903176101</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="K13" t="n">
-        <v>57.33576918556209</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>82.11608293620088</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28284,37 +28284,37 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>129.2180709939486</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>129.2180709939486</v>
+        <v>15.82707656697308</v>
       </c>
       <c r="R13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="S13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.2180709939486</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>52.3964593378205</v>
+        <v>52.39645933782045</v>
       </c>
       <c r="S14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.2180709939484</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04459898495835546</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I15" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.44188278383302</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>129.2180709939484</v>
+        <v>48.60817180563254</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28466,13 +28466,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X15" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y15" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="16">
@@ -28482,37 +28482,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J16" t="n">
-        <v>82.11608293620202</v>
+        <v>40.60739031761007</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>129.2180709939484</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28521,37 +28521,37 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>129.2180709939484</v>
+        <v>57.33576918556403</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.82707656697311</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="R16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="S16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="C17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="D17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="E17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="F17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="G17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="H17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="I17" t="n">
         <v>148.1749764353493</v>
@@ -28615,22 +28615,22 @@
         <v>171.8127151144388</v>
       </c>
       <c r="T17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="U17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="V17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="W17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="X17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="Y17" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28652,13 +28652,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>50.72679768256305</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>127.1232045289026</v>
       </c>
       <c r="H18" t="n">
-        <v>95.86716744632758</v>
+        <v>27.54556861868912</v>
       </c>
       <c r="I18" t="n">
         <v>56.7494185219329</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.44188278383303</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.364587523205</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.5164475248238</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R19" t="n">
         <v>136.0388409905457</v>
@@ -28773,22 +28773,22 @@
         <v>206.9263923888292</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>116.0448898870142</v>
+        <v>100.2178133200416</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>219.5135474428161</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.5135474428162</v>
+        <v>219.5135474428161</v>
       </c>
     </row>
     <row r="20">
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1232045289026</v>
+        <v>79.47058830627714</v>
       </c>
       <c r="H21" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,22 +28925,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.44188278383303</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.364587523205</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>185.5164475248238</v>
       </c>
       <c r="U21" t="n">
-        <v>50.72679768256324</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28962,16 +28962,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9639418688503</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>155.4085199241127</v>
@@ -28980,7 +28980,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J22" t="n">
-        <v>40.60739031761008</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>206.9263923888292</v>
+        <v>8.04081312440124</v>
       </c>
       <c r="T22" t="n">
         <v>219.5135474428162</v>
@@ -29025,7 +29025,7 @@
         <v>219.5135474428162</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.176665195699</v>
+        <v>219.5135474428162</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>52.39645933782047</v>
+        <v>52.39645933782049</v>
       </c>
       <c r="S23" t="n">
         <v>171.8127151144388</v>
@@ -29123,10 +29123,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>50.72679768256346</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>127.1232045289026</v>
@@ -29135,7 +29135,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I24" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S24" t="n">
         <v>145.364587523205</v>
       </c>
       <c r="T24" t="n">
-        <v>185.5164475248238</v>
+        <v>147.4349338856228</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29217,7 +29217,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J25" t="n">
-        <v>40.60739031761008</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>136.0388409905457</v>
@@ -29247,7 +29247,7 @@
         <v>206.9263923888292</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>219.5135474428162</v>
@@ -29259,10 +29259,10 @@
         <v>219.5135474428162</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>156.6522802046247</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.19318997351951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K26" t="n">
         <v>101.3714510123223</v>
@@ -29308,13 +29308,13 @@
         <v>101.3714510123223</v>
       </c>
       <c r="N26" t="n">
-        <v>56.34270386546956</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>101.3714510123223</v>
       </c>
       <c r="P26" t="n">
-        <v>101.3714510123223</v>
+        <v>56.34270386546939</v>
       </c>
       <c r="Q26" t="n">
         <v>101.3714510123223</v>
@@ -29463,7 +29463,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="M28" t="n">
-        <v>101.3714510123224</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="N28" t="n">
         <v>101.3714510123223</v>
@@ -29542,19 +29542,19 @@
         <v>101.3714510123223</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="N29" t="n">
-        <v>56.34270386546882</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="O29" t="n">
         <v>101.3714510123223</v>
       </c>
       <c r="P29" t="n">
-        <v>101.3714510123223</v>
+        <v>56.34270386546933</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>101.3714510123223</v>
@@ -29770,10 +29770,10 @@
         <v>101.3714510123222</v>
       </c>
       <c r="J32" t="n">
+        <v>56.34270386547004</v>
+      </c>
+      <c r="K32" t="n">
         <v>101.3714510123222</v>
-      </c>
-      <c r="K32" t="n">
-        <v>56.34270386546973</v>
       </c>
       <c r="L32" t="n">
         <v>101.3714510123222</v>
@@ -29782,7 +29782,7 @@
         <v>101.3714510123222</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="O32" t="n">
         <v>101.3714510123222</v>
@@ -29791,7 +29791,7 @@
         <v>101.3714510123222</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.3714510123222</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>101.3714510123222</v>
@@ -29931,7 +29931,7 @@
         <v>101.3714510123222</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123249</v>
       </c>
       <c r="L34" t="n">
         <v>101.3714510123222</v>
@@ -29940,7 +29940,7 @@
         <v>101.3714510123222</v>
       </c>
       <c r="N34" t="n">
-        <v>101.3714510123251</v>
+        <v>101.3714510123222</v>
       </c>
       <c r="O34" t="n">
         <v>101.3714510123222</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.39645933782047</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S35" t="n">
         <v>166.0499518471044</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>44.27331500728522</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H37" t="n">
         <v>155.4085199241127</v>
@@ -30165,7 +30165,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R37" t="n">
         <v>136.0388409905457</v>
@@ -30198,7 +30198,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="U37" t="n">
-        <v>166.0499518471044</v>
+        <v>153.8887999698065</v>
       </c>
       <c r="V37" t="n">
         <v>166.0499518471044</v>
@@ -30207,7 +30207,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="X37" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>166.0499518471044</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.39645933782047</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S38" t="n">
         <v>166.0499518471044</v>
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30384,19 +30384,19 @@
         <v>166.0499518471044</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>123.8189946124075</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>159.074444613788</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>155.4085199241127</v>
       </c>
       <c r="I40" t="n">
         <v>134.7433458784038</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.82707656697309</v>
       </c>
       <c r="R40" t="n">
         <v>136.0388409905457</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="E41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="F41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="G41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="I41" t="n">
         <v>148.1749764353493</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.39645933782047</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H43" t="n">
         <v>155.4085199241127</v>
@@ -30639,7 +30639,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J43" t="n">
-        <v>28.44623844031322</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>136.0388409905457</v>
       </c>
       <c r="S43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V43" t="n">
-        <v>166.0499518471043</v>
+        <v>153.8887999698069</v>
       </c>
       <c r="W43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X43" t="n">
-        <v>166.0499518471043</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="C44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="D44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="E44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="F44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="G44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="H44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="I44" t="n">
         <v>148.1749764353493</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.39645933782047</v>
+        <v>52.39645933782046</v>
       </c>
       <c r="S44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="T44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="U44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="V44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="W44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="X44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="C46" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="H46" t="n">
         <v>155.4085199241127</v>
@@ -30876,7 +30876,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.665924689675911</v>
       </c>
       <c r="R46" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S46" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="T46" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="U46" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="V46" t="n">
-        <v>44.27331500728465</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="W46" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="X46" t="n">
-        <v>166.0499518471045</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.0499518471045</v>
+        <v>166.0499518471043</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5943596489966315</v>
+        <v>0.5943596489966323</v>
       </c>
       <c r="H11" t="n">
-        <v>6.086985755286753</v>
+        <v>6.086985755286762</v>
       </c>
       <c r="I11" t="n">
-        <v>22.91405036794266</v>
+        <v>22.91405036794269</v>
       </c>
       <c r="J11" t="n">
-        <v>50.4455322590279</v>
+        <v>50.44553225902796</v>
       </c>
       <c r="K11" t="n">
-        <v>75.60477620105533</v>
+        <v>75.60477620105543</v>
       </c>
       <c r="L11" t="n">
-        <v>93.79441030903601</v>
+        <v>93.79441030903614</v>
       </c>
       <c r="M11" t="n">
-        <v>104.3643537168798</v>
+        <v>104.36435371688</v>
       </c>
       <c r="N11" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695917</v>
       </c>
       <c r="O11" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P11" t="n">
-        <v>85.46966047527692</v>
+        <v>85.46966047527704</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.18415554558503</v>
+        <v>64.18415554558511</v>
       </c>
       <c r="R11" t="n">
-        <v>37.33544430128469</v>
+        <v>37.33544430128474</v>
       </c>
       <c r="S11" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T11" t="n">
-        <v>2.601809363482756</v>
+        <v>2.601809363482759</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04754877191973051</v>
+        <v>0.04754877191973057</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456984</v>
       </c>
       <c r="H12" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I12" t="n">
-        <v>10.94904393490671</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J12" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698417</v>
       </c>
       <c r="K12" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604596</v>
       </c>
       <c r="L12" t="n">
-        <v>69.0487159232556</v>
+        <v>69.0487159232557</v>
       </c>
       <c r="M12" t="n">
-        <v>80.57659466491214</v>
+        <v>80.57659466491225</v>
       </c>
       <c r="N12" t="n">
-        <v>82.70921736255194</v>
+        <v>82.70921736255205</v>
       </c>
       <c r="O12" t="n">
-        <v>75.66277532953937</v>
+        <v>75.66277532953947</v>
       </c>
       <c r="P12" t="n">
-        <v>60.72604775005964</v>
+        <v>60.72604775005972</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650002</v>
       </c>
       <c r="R12" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217065</v>
       </c>
       <c r="S12" t="n">
-        <v>5.906904594182149</v>
+        <v>5.906904594182157</v>
       </c>
       <c r="T12" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850863</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300648</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2666092769782023</v>
+        <v>0.2666092769782026</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I13" t="n">
-        <v>8.017668074944487</v>
+        <v>8.017668074944497</v>
       </c>
       <c r="J13" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235893</v>
       </c>
       <c r="K13" t="n">
-        <v>30.9751505434675</v>
+        <v>30.97515054346754</v>
       </c>
       <c r="L13" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455933</v>
       </c>
       <c r="M13" t="n">
-        <v>41.79221602668311</v>
+        <v>41.79221602668316</v>
       </c>
       <c r="N13" t="n">
-        <v>40.79849053976439</v>
+        <v>40.79849053976444</v>
       </c>
       <c r="O13" t="n">
-        <v>37.68400944051901</v>
+        <v>37.68400944051906</v>
       </c>
       <c r="P13" t="n">
-        <v>32.24518019016365</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587477</v>
       </c>
       <c r="R13" t="n">
-        <v>11.98772258121989</v>
+        <v>11.98772258121991</v>
       </c>
       <c r="S13" t="n">
-        <v>4.646272581520123</v>
+        <v>4.64627258152013</v>
       </c>
       <c r="T13" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5943596489966315</v>
+        <v>0.5943596489966323</v>
       </c>
       <c r="H14" t="n">
-        <v>6.086985755286753</v>
+        <v>6.086985755286762</v>
       </c>
       <c r="I14" t="n">
-        <v>22.91405036794266</v>
+        <v>22.91405036794269</v>
       </c>
       <c r="J14" t="n">
-        <v>50.4455322590279</v>
+        <v>50.44553225902796</v>
       </c>
       <c r="K14" t="n">
-        <v>75.60477620105533</v>
+        <v>75.60477620105543</v>
       </c>
       <c r="L14" t="n">
-        <v>93.79441030903601</v>
+        <v>93.79441030903614</v>
       </c>
       <c r="M14" t="n">
-        <v>104.3643537168798</v>
+        <v>104.36435371688</v>
       </c>
       <c r="N14" t="n">
-        <v>106.0530780695915</v>
+        <v>106.0530780695917</v>
       </c>
       <c r="O14" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P14" t="n">
-        <v>85.46966047527692</v>
+        <v>85.46966047527704</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.18415554558503</v>
+        <v>64.18415554558511</v>
       </c>
       <c r="R14" t="n">
-        <v>37.33544430128469</v>
+        <v>37.33544430128474</v>
       </c>
       <c r="S14" t="n">
-        <v>13.54397050151075</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T14" t="n">
-        <v>2.601809363482756</v>
+        <v>2.601809363482759</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04754877191973051</v>
+        <v>0.04754877191973057</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3180104480456979</v>
+        <v>0.3180104480456984</v>
       </c>
       <c r="H15" t="n">
-        <v>3.071311432441346</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I15" t="n">
-        <v>10.94904393490671</v>
+        <v>10.94904393490672</v>
       </c>
       <c r="J15" t="n">
-        <v>30.04501342698412</v>
+        <v>30.04501342698417</v>
       </c>
       <c r="K15" t="n">
-        <v>51.35171344604588</v>
+        <v>51.35171344604596</v>
       </c>
       <c r="L15" t="n">
-        <v>69.0487159232556</v>
+        <v>69.0487159232557</v>
       </c>
       <c r="M15" t="n">
-        <v>80.57659466491214</v>
+        <v>80.57659466491225</v>
       </c>
       <c r="N15" t="n">
-        <v>82.70921736255194</v>
+        <v>82.70921736255205</v>
       </c>
       <c r="O15" t="n">
-        <v>75.66277532953937</v>
+        <v>75.66277532953947</v>
       </c>
       <c r="P15" t="n">
-        <v>60.72604775005964</v>
+        <v>60.72604775005972</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.59375473649997</v>
+        <v>40.59375473650002</v>
       </c>
       <c r="R15" t="n">
-        <v>19.74454343217062</v>
+        <v>19.74454343217065</v>
       </c>
       <c r="S15" t="n">
-        <v>5.906904594182149</v>
+        <v>5.906904594182157</v>
       </c>
       <c r="T15" t="n">
-        <v>1.281805270850861</v>
+        <v>1.281805270850863</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02092174000300645</v>
+        <v>0.02092174000300648</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2666092769782023</v>
+        <v>0.2666092769782026</v>
       </c>
       <c r="H16" t="n">
-        <v>2.3703988444062</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I16" t="n">
-        <v>8.017668074944487</v>
+        <v>8.017668074944497</v>
       </c>
       <c r="J16" t="n">
-        <v>18.8492758823589</v>
+        <v>18.84927588235893</v>
       </c>
       <c r="K16" t="n">
-        <v>30.9751505434675</v>
+        <v>30.97515054346754</v>
       </c>
       <c r="L16" t="n">
-        <v>39.63752832455928</v>
+        <v>39.63752832455933</v>
       </c>
       <c r="M16" t="n">
-        <v>41.79221602668311</v>
+        <v>41.79221602668316</v>
       </c>
       <c r="N16" t="n">
-        <v>40.79849053976439</v>
+        <v>40.79849053976444</v>
       </c>
       <c r="O16" t="n">
-        <v>37.68400944051901</v>
+        <v>37.68400944051906</v>
       </c>
       <c r="P16" t="n">
-        <v>32.24518019016365</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.32489136587474</v>
+        <v>22.32489136587477</v>
       </c>
       <c r="R16" t="n">
-        <v>11.98772258121989</v>
+        <v>11.98772258121991</v>
       </c>
       <c r="S16" t="n">
-        <v>4.646272581520123</v>
+        <v>4.64627258152013</v>
       </c>
       <c r="T16" t="n">
-        <v>1.139148728906864</v>
+        <v>1.139148728906866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01454232419881105</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966316</v>
       </c>
       <c r="H23" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286755</v>
       </c>
       <c r="I23" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794266</v>
       </c>
       <c r="J23" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902791</v>
       </c>
       <c r="K23" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105534</v>
       </c>
       <c r="L23" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903602</v>
       </c>
       <c r="M23" t="n">
         <v>104.3643537168799</v>
       </c>
       <c r="N23" t="n">
-        <v>106.0530780695916</v>
+        <v>106.0530780695915</v>
       </c>
       <c r="O23" t="n">
         <v>100.1429143098813</v>
       </c>
       <c r="P23" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527694</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558504</v>
       </c>
       <c r="R23" t="n">
-        <v>37.33544430128472</v>
+        <v>37.3354443012847</v>
       </c>
       <c r="S23" t="n">
         <v>13.54397050151076</v>
       </c>
       <c r="T23" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482756</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973052</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.318010448045698</v>
       </c>
       <c r="H24" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441347</v>
       </c>
       <c r="I24" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J24" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698413</v>
       </c>
       <c r="K24" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604589</v>
       </c>
       <c r="L24" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325561</v>
       </c>
       <c r="M24" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491215</v>
       </c>
       <c r="N24" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255195</v>
       </c>
       <c r="O24" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953939</v>
       </c>
       <c r="P24" t="n">
-        <v>60.72604775005968</v>
+        <v>60.72604775005965</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473649998</v>
       </c>
       <c r="R24" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S24" t="n">
-        <v>5.906904594182153</v>
+        <v>5.90690459418215</v>
       </c>
       <c r="T24" t="n">
-        <v>1.281805270850862</v>
+        <v>1.281805270850861</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2666092769782025</v>
+        <v>0.2666092769782024</v>
       </c>
       <c r="H25" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406201</v>
       </c>
       <c r="I25" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944487</v>
       </c>
       <c r="J25" t="n">
-        <v>18.84927588235892</v>
+        <v>18.8492758823589</v>
       </c>
       <c r="K25" t="n">
-        <v>30.97515054346752</v>
+        <v>30.9751505434675</v>
       </c>
       <c r="L25" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455929</v>
       </c>
       <c r="M25" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668311</v>
       </c>
       <c r="N25" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976439</v>
       </c>
       <c r="O25" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051901</v>
       </c>
       <c r="P25" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016366</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.32489136587476</v>
+        <v>22.32489136587474</v>
       </c>
       <c r="R25" t="n">
         <v>11.9877225812199</v>
       </c>
       <c r="S25" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520124</v>
       </c>
       <c r="T25" t="n">
-        <v>1.139148728906865</v>
+        <v>1.139148728906864</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881105</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966316</v>
       </c>
       <c r="H26" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286755</v>
       </c>
       <c r="I26" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794266</v>
       </c>
       <c r="J26" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902791</v>
       </c>
       <c r="K26" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105534</v>
       </c>
       <c r="L26" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903602</v>
       </c>
       <c r="M26" t="n">
         <v>104.3643537168799</v>
       </c>
       <c r="N26" t="n">
-        <v>106.0530780695916</v>
+        <v>106.0530780695915</v>
       </c>
       <c r="O26" t="n">
         <v>100.1429143098813</v>
       </c>
       <c r="P26" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527694</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558504</v>
       </c>
       <c r="R26" t="n">
-        <v>37.33544430128472</v>
+        <v>37.3354443012847</v>
       </c>
       <c r="S26" t="n">
         <v>13.54397050151076</v>
       </c>
       <c r="T26" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482756</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973052</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.318010448045698</v>
       </c>
       <c r="H27" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441347</v>
       </c>
       <c r="I27" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J27" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698413</v>
       </c>
       <c r="K27" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604589</v>
       </c>
       <c r="L27" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325561</v>
       </c>
       <c r="M27" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491215</v>
       </c>
       <c r="N27" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255195</v>
       </c>
       <c r="O27" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953939</v>
       </c>
       <c r="P27" t="n">
-        <v>60.72604775005968</v>
+        <v>60.72604775005965</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473649998</v>
       </c>
       <c r="R27" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S27" t="n">
-        <v>5.906904594182153</v>
+        <v>5.90690459418215</v>
       </c>
       <c r="T27" t="n">
-        <v>1.281805270850862</v>
+        <v>1.281805270850861</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2666092769782025</v>
+        <v>0.2666092769782024</v>
       </c>
       <c r="H28" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406201</v>
       </c>
       <c r="I28" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944487</v>
       </c>
       <c r="J28" t="n">
-        <v>18.84927588235892</v>
+        <v>18.8492758823589</v>
       </c>
       <c r="K28" t="n">
-        <v>30.97515054346752</v>
+        <v>30.9751505434675</v>
       </c>
       <c r="L28" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455929</v>
       </c>
       <c r="M28" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668311</v>
       </c>
       <c r="N28" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976439</v>
       </c>
       <c r="O28" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051901</v>
       </c>
       <c r="P28" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016366</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.32489136587476</v>
+        <v>22.32489136587474</v>
       </c>
       <c r="R28" t="n">
         <v>11.9877225812199</v>
       </c>
       <c r="S28" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520124</v>
       </c>
       <c r="T28" t="n">
-        <v>1.139148728906865</v>
+        <v>1.139148728906864</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881105</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5943596489966322</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H29" t="n">
-        <v>6.086985755286761</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I29" t="n">
-        <v>22.91405036794269</v>
+        <v>22.91405036794268</v>
       </c>
       <c r="J29" t="n">
-        <v>50.44553225902796</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K29" t="n">
-        <v>75.60477620105542</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L29" t="n">
-        <v>93.79441030903611</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M29" t="n">
-        <v>104.36435371688</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N29" t="n">
-        <v>106.0530780695917</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O29" t="n">
         <v>100.1429143098814</v>
       </c>
       <c r="P29" t="n">
-        <v>85.46966047527702</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.18415554558511</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R29" t="n">
-        <v>37.33544430128473</v>
+        <v>37.33544430128472</v>
       </c>
       <c r="S29" t="n">
         <v>13.54397050151077</v>
       </c>
       <c r="T29" t="n">
-        <v>2.601809363482759</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04754877191973057</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3180104480456983</v>
+        <v>0.3180104480456982</v>
       </c>
       <c r="H30" t="n">
         <v>3.07131143244135</v>
@@ -33260,34 +33260,34 @@
         <v>10.94904393490672</v>
       </c>
       <c r="J30" t="n">
-        <v>30.04501342698416</v>
+        <v>30.04501342698415</v>
       </c>
       <c r="K30" t="n">
-        <v>51.35171344604594</v>
+        <v>51.35171344604593</v>
       </c>
       <c r="L30" t="n">
-        <v>69.04871592325568</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M30" t="n">
-        <v>80.57659466491224</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N30" t="n">
-        <v>82.70921736255204</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O30" t="n">
-        <v>75.66277532953946</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P30" t="n">
-        <v>60.72604775005971</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.59375473650002</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R30" t="n">
         <v>19.74454343217064</v>
       </c>
       <c r="S30" t="n">
-        <v>5.906904594182155</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T30" t="n">
         <v>1.281805270850862</v>
@@ -33330,43 +33330,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2666092769782026</v>
+        <v>0.2666092769782025</v>
       </c>
       <c r="H31" t="n">
         <v>2.370398844406203</v>
       </c>
       <c r="I31" t="n">
-        <v>8.017668074944496</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J31" t="n">
         <v>18.84927588235892</v>
       </c>
       <c r="K31" t="n">
-        <v>30.97515054346753</v>
+        <v>30.97515054346752</v>
       </c>
       <c r="L31" t="n">
-        <v>39.63752832455933</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M31" t="n">
-        <v>41.79221602668315</v>
+        <v>41.79221602668314</v>
       </c>
       <c r="N31" t="n">
-        <v>40.79849053976443</v>
+        <v>40.79849053976442</v>
       </c>
       <c r="O31" t="n">
-        <v>37.68400944051905</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P31" t="n">
         <v>32.24518019016369</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.32489136587477</v>
+        <v>22.32489136587476</v>
       </c>
       <c r="R31" t="n">
-        <v>11.98772258121991</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S31" t="n">
-        <v>4.64627258152013</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T31" t="n">
         <v>1.139148728906865</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H32" t="n">
-        <v>6.086985755286759</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I32" t="n">
         <v>22.91405036794268</v>
       </c>
       <c r="J32" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K32" t="n">
-        <v>75.60477620105539</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L32" t="n">
-        <v>93.79441030903608</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M32" t="n">
         <v>104.3643537168799</v>
@@ -33433,25 +33433,25 @@
         <v>106.0530780695916</v>
       </c>
       <c r="O32" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P32" t="n">
-        <v>85.46966047527698</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.18415554558509</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R32" t="n">
         <v>37.33544430128472</v>
       </c>
       <c r="S32" t="n">
-        <v>13.54397050151076</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T32" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>0.3180104480456982</v>
       </c>
       <c r="H33" t="n">
-        <v>3.071311432441349</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I33" t="n">
         <v>10.94904393490672</v>
@@ -33503,28 +33503,28 @@
         <v>51.35171344604593</v>
       </c>
       <c r="L33" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M33" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N33" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O33" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P33" t="n">
-        <v>60.72604775005968</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R33" t="n">
         <v>19.74454343217064</v>
       </c>
       <c r="S33" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T33" t="n">
         <v>1.281805270850862</v>
@@ -33570,10 +33570,10 @@
         <v>0.2666092769782025</v>
       </c>
       <c r="H34" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I34" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J34" t="n">
         <v>18.84927588235892</v>
@@ -33582,7 +33582,7 @@
         <v>30.97515054346752</v>
       </c>
       <c r="L34" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M34" t="n">
         <v>41.79221602668314</v>
@@ -33591,10 +33591,10 @@
         <v>40.79849053976442</v>
       </c>
       <c r="O34" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P34" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q34" t="n">
         <v>22.32489136587476</v>
@@ -33603,13 +33603,13 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S34" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T34" t="n">
         <v>1.139148728906865</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H35" t="n">
-        <v>6.086985755286759</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I35" t="n">
         <v>22.91405036794268</v>
       </c>
       <c r="J35" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K35" t="n">
-        <v>75.60477620105539</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L35" t="n">
-        <v>93.79441030903608</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M35" t="n">
         <v>104.3643537168799</v>
@@ -33670,25 +33670,25 @@
         <v>106.0530780695916</v>
       </c>
       <c r="O35" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P35" t="n">
-        <v>85.46966047527698</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.18415554558509</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R35" t="n">
         <v>37.33544430128472</v>
       </c>
       <c r="S35" t="n">
-        <v>13.54397050151076</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T35" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,7 +33728,7 @@
         <v>0.3180104480456982</v>
       </c>
       <c r="H36" t="n">
-        <v>3.071311432441349</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I36" t="n">
         <v>10.94904393490672</v>
@@ -33740,28 +33740,28 @@
         <v>51.35171344604593</v>
       </c>
       <c r="L36" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M36" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N36" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O36" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P36" t="n">
-        <v>60.72604775005968</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R36" t="n">
         <v>19.74454343217064</v>
       </c>
       <c r="S36" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T36" t="n">
         <v>1.281805270850862</v>
@@ -33807,10 +33807,10 @@
         <v>0.2666092769782025</v>
       </c>
       <c r="H37" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I37" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J37" t="n">
         <v>18.84927588235892</v>
@@ -33819,7 +33819,7 @@
         <v>30.97515054346752</v>
       </c>
       <c r="L37" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M37" t="n">
         <v>41.79221602668314</v>
@@ -33828,10 +33828,10 @@
         <v>40.79849053976442</v>
       </c>
       <c r="O37" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P37" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q37" t="n">
         <v>22.32489136587476</v>
@@ -33840,13 +33840,13 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S37" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T37" t="n">
         <v>1.139148728906865</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H38" t="n">
-        <v>6.086985755286759</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I38" t="n">
         <v>22.91405036794268</v>
       </c>
       <c r="J38" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K38" t="n">
-        <v>75.60477620105539</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L38" t="n">
-        <v>93.79441030903608</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M38" t="n">
         <v>104.3643537168799</v>
@@ -33907,25 +33907,25 @@
         <v>106.0530780695916</v>
       </c>
       <c r="O38" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P38" t="n">
-        <v>85.46966047527698</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.18415554558509</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R38" t="n">
         <v>37.33544430128472</v>
       </c>
       <c r="S38" t="n">
-        <v>13.54397050151076</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T38" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>0.3180104480456982</v>
       </c>
       <c r="H39" t="n">
-        <v>3.071311432441349</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I39" t="n">
         <v>10.94904393490672</v>
@@ -33977,28 +33977,28 @@
         <v>51.35171344604593</v>
       </c>
       <c r="L39" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M39" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N39" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O39" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P39" t="n">
-        <v>60.72604775005968</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R39" t="n">
         <v>19.74454343217064</v>
       </c>
       <c r="S39" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T39" t="n">
         <v>1.281805270850862</v>
@@ -34044,10 +34044,10 @@
         <v>0.2666092769782025</v>
       </c>
       <c r="H40" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I40" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J40" t="n">
         <v>18.84927588235892</v>
@@ -34056,7 +34056,7 @@
         <v>30.97515054346752</v>
       </c>
       <c r="L40" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M40" t="n">
         <v>41.79221602668314</v>
@@ -34065,10 +34065,10 @@
         <v>40.79849053976442</v>
       </c>
       <c r="O40" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P40" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q40" t="n">
         <v>22.32489136587476</v>
@@ -34077,13 +34077,13 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S40" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T40" t="n">
         <v>1.139148728906865</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H41" t="n">
-        <v>6.086985755286759</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I41" t="n">
         <v>22.91405036794268</v>
       </c>
       <c r="J41" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K41" t="n">
-        <v>75.60477620105539</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L41" t="n">
-        <v>93.79441030903608</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M41" t="n">
         <v>104.3643537168799</v>
@@ -34144,25 +34144,25 @@
         <v>106.0530780695916</v>
       </c>
       <c r="O41" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P41" t="n">
-        <v>85.46966047527698</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.18415554558509</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R41" t="n">
         <v>37.33544430128472</v>
       </c>
       <c r="S41" t="n">
-        <v>13.54397050151076</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T41" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>0.3180104480456982</v>
       </c>
       <c r="H42" t="n">
-        <v>3.071311432441349</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I42" t="n">
         <v>10.94904393490672</v>
@@ -34214,28 +34214,28 @@
         <v>51.35171344604593</v>
       </c>
       <c r="L42" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M42" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N42" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O42" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P42" t="n">
-        <v>60.72604775005968</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R42" t="n">
         <v>19.74454343217064</v>
       </c>
       <c r="S42" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T42" t="n">
         <v>1.281805270850862</v>
@@ -34281,10 +34281,10 @@
         <v>0.2666092769782025</v>
       </c>
       <c r="H43" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I43" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J43" t="n">
         <v>18.84927588235892</v>
@@ -34293,7 +34293,7 @@
         <v>30.97515054346752</v>
       </c>
       <c r="L43" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M43" t="n">
         <v>41.79221602668314</v>
@@ -34302,10 +34302,10 @@
         <v>40.79849053976442</v>
       </c>
       <c r="O43" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P43" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q43" t="n">
         <v>22.32489136587476</v>
@@ -34314,13 +34314,13 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S43" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T43" t="n">
         <v>1.139148728906865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,22 +34357,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966321</v>
       </c>
       <c r="H44" t="n">
-        <v>6.086985755286759</v>
+        <v>6.08698575528676</v>
       </c>
       <c r="I44" t="n">
         <v>22.91405036794268</v>
       </c>
       <c r="J44" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902795</v>
       </c>
       <c r="K44" t="n">
-        <v>75.60477620105539</v>
+        <v>75.6047762010554</v>
       </c>
       <c r="L44" t="n">
-        <v>93.79441030903608</v>
+        <v>93.7944103090361</v>
       </c>
       <c r="M44" t="n">
         <v>104.3643537168799</v>
@@ -34381,25 +34381,25 @@
         <v>106.0530780695916</v>
       </c>
       <c r="O44" t="n">
-        <v>100.1429143098813</v>
+        <v>100.1429143098814</v>
       </c>
       <c r="P44" t="n">
-        <v>85.46966047527698</v>
+        <v>85.469660475277</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.18415554558509</v>
+        <v>64.1841555455851</v>
       </c>
       <c r="R44" t="n">
         <v>37.33544430128472</v>
       </c>
       <c r="S44" t="n">
-        <v>13.54397050151076</v>
+        <v>13.54397050151077</v>
       </c>
       <c r="T44" t="n">
-        <v>2.601809363482757</v>
+        <v>2.601809363482758</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973056</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,7 +34439,7 @@
         <v>0.3180104480456982</v>
       </c>
       <c r="H45" t="n">
-        <v>3.071311432441349</v>
+        <v>3.07131143244135</v>
       </c>
       <c r="I45" t="n">
         <v>10.94904393490672</v>
@@ -34451,28 +34451,28 @@
         <v>51.35171344604593</v>
       </c>
       <c r="L45" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325567</v>
       </c>
       <c r="M45" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491221</v>
       </c>
       <c r="N45" t="n">
-        <v>82.70921736255201</v>
+        <v>82.70921736255202</v>
       </c>
       <c r="O45" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953944</v>
       </c>
       <c r="P45" t="n">
-        <v>60.72604775005968</v>
+        <v>60.7260477500597</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.5937547365</v>
+        <v>40.59375473650001</v>
       </c>
       <c r="R45" t="n">
         <v>19.74454343217064</v>
       </c>
       <c r="S45" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182154</v>
       </c>
       <c r="T45" t="n">
         <v>1.281805270850862</v>
@@ -34518,10 +34518,10 @@
         <v>0.2666092769782025</v>
       </c>
       <c r="H46" t="n">
-        <v>2.370398844406202</v>
+        <v>2.370398844406203</v>
       </c>
       <c r="I46" t="n">
-        <v>8.017668074944492</v>
+        <v>8.017668074944494</v>
       </c>
       <c r="J46" t="n">
         <v>18.84927588235892</v>
@@ -34530,7 +34530,7 @@
         <v>30.97515054346752</v>
       </c>
       <c r="L46" t="n">
-        <v>39.63752832455931</v>
+        <v>39.63752832455932</v>
       </c>
       <c r="M46" t="n">
         <v>41.79221602668314</v>
@@ -34539,10 +34539,10 @@
         <v>40.79849053976442</v>
       </c>
       <c r="O46" t="n">
-        <v>37.68400944051903</v>
+        <v>37.68400944051904</v>
       </c>
       <c r="P46" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016369</v>
       </c>
       <c r="Q46" t="n">
         <v>22.32489136587476</v>
@@ -34551,13 +34551,13 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S46" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520129</v>
       </c>
       <c r="T46" t="n">
         <v>1.139148728906865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01454232419881106</v>
+        <v>0.01454232419881107</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>123.1713345547912</v>
+        <v>123.1713345547913</v>
       </c>
       <c r="K11" t="n">
-        <v>318.1708085695228</v>
+        <v>318.1708085695229</v>
       </c>
       <c r="L11" t="n">
-        <v>445.1937770615069</v>
+        <v>445.1937770615071</v>
       </c>
       <c r="M11" t="n">
-        <v>16.67149238398183</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="O11" t="n">
-        <v>408.2283531713297</v>
+        <v>133.1773006074751</v>
       </c>
       <c r="P11" t="n">
-        <v>315.9311720470479</v>
+        <v>315.931172047048</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.5702703804709</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1603523957314</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L12" t="n">
-        <v>438.5657312466047</v>
+        <v>438.5657312466049</v>
       </c>
       <c r="M12" t="n">
-        <v>48.08583089196174</v>
+        <v>413.9592718497967</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="P12" t="n">
-        <v>365.8734409578346</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.61068067633839</v>
       </c>
       <c r="K13" t="n">
-        <v>122.2545437135179</v>
+        <v>194.1368455219043</v>
       </c>
       <c r="L13" t="n">
-        <v>141.2608408500739</v>
+        <v>223.3769237862749</v>
       </c>
       <c r="M13" t="n">
-        <v>160.9775757515333</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N13" t="n">
-        <v>160.4170175595627</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O13" t="n">
-        <v>266.3603092179925</v>
+        <v>137.142238224044</v>
       </c>
       <c r="P13" t="n">
-        <v>95.84970920848465</v>
+        <v>95.8497092084847</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.3909944269755</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>123.1713345547912</v>
+        <v>123.1713345547913</v>
       </c>
       <c r="K14" t="n">
-        <v>318.1708085695228</v>
+        <v>318.1708085695229</v>
       </c>
       <c r="L14" t="n">
-        <v>445.1937770615069</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>10.57245411718134</v>
       </c>
       <c r="N14" t="n">
-        <v>16.67149238398183</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="O14" t="n">
-        <v>408.2283531713297</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P14" t="n">
-        <v>315.9311720470479</v>
+        <v>315.931172047048</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.5702703804709</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>90.90778770284892</v>
+        <v>90.90778770284896</v>
       </c>
       <c r="K15" t="n">
-        <v>283.1603523957314</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L15" t="n">
-        <v>438.5657312466047</v>
+        <v>438.5657312466049</v>
       </c>
       <c r="M15" t="n">
-        <v>323.0514841469475</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>451.2928153283073</v>
+        <v>408.4708585174205</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>365.8734409578347</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.50869261859193</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>64.91877452795579</v>
+        <v>64.91877452795583</v>
       </c>
       <c r="L16" t="n">
-        <v>270.4789118440223</v>
+        <v>141.260840850074</v>
       </c>
       <c r="M16" t="n">
-        <v>160.9775757515333</v>
+        <v>160.9775757515334</v>
       </c>
       <c r="N16" t="n">
-        <v>160.4170175595627</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O16" t="n">
-        <v>266.3603092179923</v>
+        <v>194.478007409608</v>
       </c>
       <c r="P16" t="n">
-        <v>95.84970920848465</v>
+        <v>225.0677802024331</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>113.3909944269754</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>445.193777061507</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>176.2417627644529</v>
       </c>
       <c r="N17" t="n">
-        <v>176.2417627644524</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>408.2283531713298</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>90.90778770284894</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>283.1603523957315</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M18" t="n">
-        <v>395.7437744357172</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>48.08583089196186</v>
       </c>
       <c r="O18" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="P18" t="n">
         <v>365.8734409578347</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>123.1713345547912</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>318.1708085695228</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>250.2495968954663</v>
       </c>
       <c r="M20" t="n">
-        <v>10.57245411718105</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="N20" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="O20" t="n">
-        <v>408.2283531713298</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>315.9311720470479</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.570270380471</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>90.90778770284894</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>438.5657312466048</v>
       </c>
       <c r="M21" t="n">
-        <v>354.8780585625826</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="N21" t="n">
-        <v>451.2928153283073</v>
+        <v>445.7858462654319</v>
       </c>
       <c r="O21" t="n">
-        <v>451.2928153283073</v>
+        <v>451.2928153283074</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36367,16 +36367,16 @@
         <v>451.2928153283071</v>
       </c>
       <c r="N23" t="n">
-        <v>10.57245411718059</v>
+        <v>10.57245411718117</v>
       </c>
       <c r="O23" t="n">
-        <v>408.2283531713298</v>
+        <v>408.2283531713297</v>
       </c>
       <c r="P23" t="n">
         <v>315.9311720470479</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.570270380471</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>90.90778770284894</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L24" t="n">
-        <v>438.5657312466048</v>
+        <v>438.5657312466047</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>48.08583089196129</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>408.4708585174192</v>
+        <v>451.2928153283071</v>
       </c>
       <c r="P24" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q24" t="n">
         <v>199.9590373482113</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L25" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M25" t="n">
         <v>160.9775757515334</v>
       </c>
       <c r="N25" t="n">
-        <v>160.4170175595628</v>
+        <v>160.4170175595627</v>
       </c>
       <c r="O25" t="n">
         <v>137.142238224044</v>
       </c>
       <c r="P25" t="n">
-        <v>95.84970920848468</v>
+        <v>95.84970920848465</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>123.1713345547912</v>
+        <v>224.5427855671135</v>
       </c>
       <c r="K26" t="n">
         <v>419.5422595818451</v>
@@ -36601,19 +36601,19 @@
         <v>546.5652280738293</v>
       </c>
       <c r="M26" t="n">
-        <v>602.9470837727255</v>
+        <v>602.9470837727254</v>
       </c>
       <c r="N26" t="n">
-        <v>544.5486694984104</v>
+        <v>488.2059656329408</v>
       </c>
       <c r="O26" t="n">
         <v>509.5998041836521</v>
       </c>
       <c r="P26" t="n">
-        <v>417.3026230593703</v>
+        <v>372.2738759125173</v>
       </c>
       <c r="Q26" t="n">
-        <v>260.9417213927933</v>
+        <v>260.9417213927932</v>
       </c>
       <c r="R26" t="n">
         <v>48.97499167450184</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>90.90778770284894</v>
+        <v>90.90778770284892</v>
       </c>
       <c r="K27" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L27" t="n">
-        <v>438.5657312466048</v>
+        <v>438.5657312466047</v>
       </c>
       <c r="M27" t="n">
-        <v>570.5092749782723</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N27" t="n">
-        <v>81.15561336752914</v>
+        <v>81.15561336752937</v>
       </c>
       <c r="O27" t="n">
-        <v>471.8243417781767</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P27" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q27" t="n">
         <v>199.9590373482113</v>
@@ -36756,10 +36756,10 @@
         <v>166.2902255402781</v>
       </c>
       <c r="L28" t="n">
-        <v>242.6322918623962</v>
+        <v>242.6322918623963</v>
       </c>
       <c r="M28" t="n">
-        <v>262.3490267638558</v>
+        <v>262.3490267638557</v>
       </c>
       <c r="N28" t="n">
         <v>261.7884685718851</v>
@@ -36832,28 +36832,28 @@
         <v>224.5427855671136</v>
       </c>
       <c r="K29" t="n">
-        <v>419.5422595818451</v>
+        <v>419.5422595818452</v>
       </c>
       <c r="L29" t="n">
-        <v>546.5652280738294</v>
+        <v>546.5652280738293</v>
       </c>
       <c r="M29" t="n">
-        <v>501.5756327604032</v>
+        <v>602.9470837727255</v>
       </c>
       <c r="N29" t="n">
-        <v>544.5486694984097</v>
+        <v>589.5774166452632</v>
       </c>
       <c r="O29" t="n">
-        <v>509.5998041836522</v>
+        <v>509.5998041836521</v>
       </c>
       <c r="P29" t="n">
-        <v>417.3026230593703</v>
+        <v>372.2738759125173</v>
       </c>
       <c r="Q29" t="n">
-        <v>260.9417213927933</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R29" t="n">
-        <v>48.97499167450186</v>
+        <v>48.97499167450187</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>283.1603523957315</v>
       </c>
       <c r="L30" t="n">
-        <v>438.5657312466049</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M30" t="n">
         <v>570.5092749782723</v>
       </c>
       <c r="N30" t="n">
-        <v>81.15561336752867</v>
+        <v>81.15561336752891</v>
       </c>
       <c r="O30" t="n">
         <v>471.8243417781767</v>
@@ -37008,7 +37008,7 @@
         <v>197.221160220807</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.54437444534922</v>
+        <v>85.54437444534923</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.5427855671134</v>
+        <v>179.5140384202613</v>
       </c>
       <c r="K32" t="n">
-        <v>374.5135124349925</v>
+        <v>419.5422595818451</v>
       </c>
       <c r="L32" t="n">
-        <v>546.5652280738292</v>
+        <v>546.5652280738293</v>
       </c>
       <c r="M32" t="n">
         <v>602.9470837727254</v>
       </c>
       <c r="N32" t="n">
-        <v>488.2059656329408</v>
+        <v>589.577416645263</v>
       </c>
       <c r="O32" t="n">
         <v>509.599804183652</v>
@@ -37087,10 +37087,10 @@
         <v>417.3026230593701</v>
       </c>
       <c r="Q32" t="n">
-        <v>260.9417213927932</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R32" t="n">
-        <v>48.97499167450173</v>
+        <v>48.97499167450175</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>90.90778770284894</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K33" t="n">
         <v>283.1603523957315</v>
@@ -37157,7 +37157,7 @@
         <v>570.5092749782723</v>
       </c>
       <c r="N33" t="n">
-        <v>81.15561336752914</v>
+        <v>81.15561336752891</v>
       </c>
       <c r="O33" t="n">
         <v>471.8243417781767</v>
@@ -37166,7 +37166,7 @@
         <v>365.8734409578347</v>
       </c>
       <c r="Q33" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.76406069471211</v>
+        <v>60.76406069471213</v>
       </c>
       <c r="K34" t="n">
-        <v>166.290225540278</v>
+        <v>166.2902255402807</v>
       </c>
       <c r="L34" t="n">
-        <v>242.6322918623961</v>
+        <v>242.6322918623962</v>
       </c>
       <c r="M34" t="n">
         <v>262.3490267638556</v>
       </c>
       <c r="N34" t="n">
-        <v>261.7884685718878</v>
+        <v>261.788468571885</v>
       </c>
       <c r="O34" t="n">
         <v>238.5136892363662</v>
@@ -37245,7 +37245,7 @@
         <v>197.2211602208069</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.54437444534911</v>
+        <v>85.54437444534912</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>24.64987053245824</v>
       </c>
       <c r="K35" t="n">
         <v>318.1708085695228</v>
@@ -37315,7 +37315,7 @@
         <v>501.5756327604031</v>
       </c>
       <c r="N35" t="n">
-        <v>488.2059656329408</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O35" t="n">
         <v>408.2283531713298</v>
@@ -37324,7 +37324,7 @@
         <v>315.9311720470479</v>
       </c>
       <c r="Q35" t="n">
-        <v>24.64987053245851</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>90.90778770284894</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K36" t="n">
         <v>283.1603523957315</v>
@@ -37403,7 +37403,7 @@
         <v>365.8734409578347</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>445.193777061507</v>
       </c>
       <c r="M38" t="n">
-        <v>501.5756327604031</v>
+        <v>243.4838983575993</v>
       </c>
       <c r="N38" t="n">
-        <v>230.1142312301362</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O38" t="n">
         <v>408.2283531713298</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>90.90778770284894</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K39" t="n">
         <v>283.1603523957315</v>
@@ -37631,7 +37631,7 @@
         <v>570.5092749782723</v>
       </c>
       <c r="N39" t="n">
-        <v>81.15561336752867</v>
+        <v>81.1556133675296</v>
       </c>
       <c r="O39" t="n">
         <v>471.8243417781767</v>
@@ -37640,7 +37640,7 @@
         <v>365.8734409578347</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K41" t="n">
         <v>318.1708085695228</v>
@@ -37789,16 +37789,16 @@
         <v>501.5756327604031</v>
       </c>
       <c r="N41" t="n">
-        <v>488.2059656329408</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O41" t="n">
         <v>408.2283531713298</v>
       </c>
       <c r="P41" t="n">
-        <v>315.9311720470479</v>
+        <v>217.4097080247153</v>
       </c>
       <c r="Q41" t="n">
-        <v>24.64987053245851</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>90.90778770284894</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K42" t="n">
         <v>283.1603523957315</v>
@@ -37877,7 +37877,7 @@
         <v>365.8734409578347</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>24.64987053245824</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K44" t="n">
         <v>318.1708085695228</v>
@@ -38023,10 +38023,10 @@
         <v>445.193777061507</v>
       </c>
       <c r="M44" t="n">
-        <v>501.5756327604031</v>
+        <v>243.4838983575993</v>
       </c>
       <c r="N44" t="n">
-        <v>488.2059656329408</v>
+        <v>488.2059656329409</v>
       </c>
       <c r="O44" t="n">
         <v>408.2283531713298</v>
@@ -38035,7 +38035,7 @@
         <v>315.9311720470479</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>90.90778770284894</v>
+        <v>90.90778770284895</v>
       </c>
       <c r="K45" t="n">
         <v>283.1603523957315</v>
@@ -38105,16 +38105,16 @@
         <v>570.5092749782723</v>
       </c>
       <c r="N45" t="n">
-        <v>81.1556133675296</v>
+        <v>447.0290543253643</v>
       </c>
       <c r="O45" t="n">
         <v>471.8243417781767</v>
       </c>
       <c r="P45" t="n">
-        <v>365.8734409578347</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.9590373482113</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
